--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="285">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="284">
   <si>
     <t>Table 20: Export diversification</t>
   </si>
@@ -2075,11 +2072,9 @@
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2097,87 +2092,87 @@
     </row>
     <row r="2" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P2" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="18">
         <v>86.744397520930093</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="20">
         <v>5.3948679853363997</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="20">
         <v>5.1591674967954297</v>
       </c>
       <c r="I3" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="20">
         <v>1.13812519978797</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" s="21">
         <v>0.36273154559377002</v>
@@ -2197,37 +2192,37 @@
     </row>
     <row r="4" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="27">
         <v>89.710316754064806</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="29">
         <v>1.88320610497139</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="29">
         <v>0.78058024840454998</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="29">
         <v>0.72611306619090998</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="30">
         <v>0.70512548415637</v>
@@ -2242,42 +2237,42 @@
         <v>37.162462858271397</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="27">
         <v>39.9334975294082</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="29">
         <v>17.666303760362499</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="29">
         <v>11.655684116192701</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="29">
         <v>6.6354217890067497</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="30">
         <v>1.7687868068760699</v>
@@ -2297,37 +2292,37 @@
     </row>
     <row r="6" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>36</v>
-      </c>
       <c r="C6" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="27">
         <v>41.898541196978798</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" s="29">
         <v>9.5985310450362693</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="29">
         <v>9.5729301970001099</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6" s="29">
         <v>4.5033348777093103</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L6" s="30">
         <v>4.3930053376889298</v>
@@ -2347,37 +2342,37 @@
     </row>
     <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>43</v>
       </c>
       <c r="D7" s="27">
         <v>55.2799109263647</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="29">
         <v>7.9855326586651696</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="29">
         <v>7.35391295257865</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="29">
         <v>4.3617914379157101</v>
       </c>
       <c r="K7" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="30">
         <v>3.1697470687481202</v>
@@ -2397,37 +2392,37 @@
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>49</v>
       </c>
       <c r="D8" s="27">
         <v>24.161074559735798</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="29">
         <v>17.349456723148101</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="29">
         <v>6.3666326029425404</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="29">
         <v>5.1511490472992598</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L8" s="30">
         <v>5.0900044967314297</v>
@@ -2447,37 +2442,37 @@
     </row>
     <row r="9" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>54</v>
       </c>
       <c r="D9" s="27">
         <v>17.1463223312082</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="29">
         <v>15.4964261492854</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" s="29">
         <v>10.1891423089301</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="29">
         <v>8.8497861308012808</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="30">
         <v>6.79350175224533</v>
@@ -2497,37 +2492,37 @@
     </row>
     <row r="10" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>58</v>
-      </c>
       <c r="C10" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="27">
         <v>15.475410086252401</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="29">
         <v>8.8404528651597598</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="29">
         <v>7.0031166968996104</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="29">
         <v>6.19483109537767</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L10" s="30">
         <v>4.6501677672408199</v>
@@ -2547,37 +2542,37 @@
     </row>
     <row r="11" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>63</v>
-      </c>
       <c r="C11" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="27">
         <v>53.305531936497196</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F11" s="29">
         <v>19.128435622841099</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H11" s="29">
         <v>2.7616416120385501</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J11" s="29">
         <v>2.5398593562070002</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L11" s="30">
         <v>1.4786822483044</v>
@@ -2592,42 +2587,42 @@
         <v>35.428366168647003</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>68</v>
-      </c>
       <c r="C12" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="39">
         <v>42.319680607217201</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="41">
         <v>10.810331364881501</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="41">
         <v>5.7243031785329501</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="41">
         <v>5.6667845123347798</v>
       </c>
       <c r="K12" s="40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L12" s="42">
         <v>5.4435687240077604</v>
@@ -2647,37 +2642,37 @@
     </row>
     <row r="13" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>72</v>
-      </c>
       <c r="C13" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="49">
         <v>15.9409369895659</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="51">
         <v>10.997253180502099</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" s="51">
         <v>5.9538295040753999</v>
       </c>
       <c r="I13" s="50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="51">
         <v>5.3575446824618203</v>
       </c>
       <c r="K13" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="52">
         <v>4.2523620469286003</v>
@@ -2697,37 +2692,37 @@
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>74</v>
-      </c>
       <c r="C14" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="27">
         <v>48.065919792400599</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="29">
         <v>20.662998647588999</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="29">
         <v>7.8316272621458198</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J14" s="29">
         <v>3.8600526794655501</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="30">
         <v>3.7029723553859299</v>
@@ -2747,37 +2742,37 @@
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>79</v>
-      </c>
       <c r="C15" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="27">
         <v>36.375516296422099</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="29">
         <v>12.4328830950425</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="29">
         <v>9.9683297285969701</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="29">
         <v>8.7096583117163799</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L15" s="30">
         <v>7.7489645668774196</v>
@@ -2797,37 +2792,37 @@
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="C16" s="36" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>84</v>
       </c>
       <c r="D16" s="27">
         <v>47.1267184221919</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="29">
         <v>16.605839185355201</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="29">
         <v>14.30589334171</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="29">
         <v>8.3098717339941004</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L16" s="30">
         <v>2.5296281198970201</v>
@@ -2847,37 +2842,37 @@
     </row>
     <row r="17" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>87</v>
-      </c>
       <c r="C17" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="58">
         <v>73.803606142515704</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="60">
         <v>21.011663849408201</v>
       </c>
       <c r="G17" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="60">
         <v>2.9122273231531701</v>
       </c>
       <c r="I17" s="59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="60">
         <v>1.7579143393797101</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L17" s="61">
         <v>0.11191490349064</v>
@@ -2897,37 +2892,37 @@
     </row>
     <row r="18" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>92</v>
-      </c>
       <c r="C18" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="58">
         <v>62.9294819678544</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="60">
         <v>23.6130996776496</v>
       </c>
       <c r="G18" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="60">
         <v>2.7005335369582002</v>
       </c>
       <c r="I18" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="60">
         <v>1.45539365285588</v>
       </c>
       <c r="K18" s="59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L18" s="61">
         <v>1.3062480052287</v>
@@ -2942,42 +2937,42 @@
         <v>68.397835797202006</v>
       </c>
       <c r="P18" s="64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>94</v>
-      </c>
       <c r="C19" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="27">
         <v>49.887015244340397</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" s="29">
         <v>23.360368463136599</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H19" s="29">
         <v>6.6604270357279001</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="29">
         <v>5.7195632281733397</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="30">
         <v>3.05106367264995</v>
@@ -2992,42 +2987,42 @@
         <v>26.458946210193801</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="56" t="s">
-        <v>98</v>
-      </c>
       <c r="C20" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="58">
         <v>68.548782615981906</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="60">
         <v>20.413921991755402</v>
       </c>
       <c r="G20" s="59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H20" s="60">
         <v>5.8660318506706597</v>
       </c>
       <c r="I20" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="60">
         <v>3.8170588780709198</v>
       </c>
       <c r="K20" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L20" s="61">
         <v>0.26242124336264</v>
@@ -3047,37 +3042,37 @@
     </row>
     <row r="21" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>102</v>
-      </c>
       <c r="C21" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" s="58">
         <v>66.664881022438706</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F21" s="60">
         <v>19.737119126469299</v>
       </c>
       <c r="G21" s="59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="60">
         <v>5.5392141644433002</v>
       </c>
       <c r="I21" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J21" s="60">
         <v>3.0503270853898101</v>
       </c>
       <c r="K21" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="61">
         <v>0.91503174960414002</v>
@@ -3097,37 +3092,37 @@
     </row>
     <row r="22" spans="1:16" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="C22" s="36" t="s">
         <v>105</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>106</v>
       </c>
       <c r="D22" s="27">
         <v>41.846619884165797</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="29">
         <v>24.290328169165299</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="29">
         <v>8.6649553045528496</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J22" s="29">
         <v>2.19762697268298</v>
       </c>
       <c r="K22" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L22" s="30">
         <v>2.0881603999062799</v>
@@ -3142,42 +3137,42 @@
         <v>22.328435416286901</v>
       </c>
       <c r="P22" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="49">
         <v>47.472359691473102</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F23" s="51">
         <v>18.087684481666301</v>
       </c>
       <c r="G23" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H23" s="51">
         <v>5.3452095591168796</v>
       </c>
       <c r="I23" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J23" s="51">
         <v>3.70194355311394</v>
       </c>
       <c r="K23" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L23" s="52">
         <v>3.4789456892161001</v>
@@ -3197,37 +3192,37 @@
     </row>
     <row r="24" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A24" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="C24" s="36" t="s">
         <v>112</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>113</v>
       </c>
       <c r="D24" s="27">
         <v>29.938958471306101</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="29">
         <v>24.561875133988401</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="29">
         <v>13.613619064938501</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J24" s="29">
         <v>10.6187105439887</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L24" s="30">
         <v>9.9516474393709995</v>
@@ -3247,37 +3242,37 @@
     </row>
     <row r="25" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="C25" s="36" t="s">
         <v>119</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>120</v>
       </c>
       <c r="D25" s="27">
         <v>25.1116634196691</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="29">
         <v>21.567563528990899</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H25" s="29">
         <v>14.1797321093847</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="29">
         <v>10.2540034010912</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" s="30">
         <v>5.6915779377054498</v>
@@ -3297,46 +3292,46 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>125</v>
-      </c>
       <c r="C26" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O26" s="30">
         <v>31.532871378903199</v>
@@ -3347,37 +3342,37 @@
     </row>
     <row r="27" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="35" t="s">
-        <v>127</v>
-      </c>
       <c r="C27" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D27" s="27">
         <v>26.973834489762599</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="29">
         <v>11.183053297341001</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="29">
         <v>8.2039010323432393</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" s="29">
         <v>7.6512657615481299</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L27" s="30">
         <v>6.3888331611920304</v>
@@ -3397,37 +3392,37 @@
     </row>
     <row r="28" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>131</v>
-      </c>
       <c r="C28" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D28" s="27">
         <v>18.073064987704299</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F28" s="29">
         <v>9.8084018463183593</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" s="29">
         <v>6.5032332792185201</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J28" s="29">
         <v>3.5649704101760502</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L28" s="30">
         <v>2.2886150464548898</v>
@@ -3447,37 +3442,37 @@
     </row>
     <row r="29" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A29" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>134</v>
-      </c>
       <c r="C29" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="27">
         <v>20.1611892284288</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F29" s="29">
         <v>14.752370458048</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="29">
         <v>6.3220757653279698</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J29" s="29">
         <v>4.4936867990974703</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L29" s="30">
         <v>4.1778312018772299</v>
@@ -3497,37 +3492,37 @@
     </row>
     <row r="30" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="C30" s="36" t="s">
         <v>137</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>138</v>
       </c>
       <c r="D30" s="27">
         <v>10.6209537580307</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" s="29">
         <v>7.7854899891429703</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H30" s="29">
         <v>5.4418940026658396</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J30" s="29">
         <v>4.8831201303168497</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L30" s="30">
         <v>4.3286738675415402</v>
@@ -3547,37 +3542,37 @@
     </row>
     <row r="31" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A31" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>141</v>
-      </c>
       <c r="C31" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31" s="27">
         <v>32.300044440234998</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="29">
         <v>10.271239192886799</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H31" s="29">
         <v>5.6018728192483502</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J31" s="29">
         <v>5.5126501642011396</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L31" s="30">
         <v>5.3502279814071798</v>
@@ -3597,37 +3592,37 @@
     </row>
     <row r="32" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A32" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>144</v>
-      </c>
       <c r="C32" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="27">
         <v>25.1143895304144</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F32" s="29">
         <v>23.602465214055901</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H32" s="29">
         <v>22.406097367657999</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J32" s="29">
         <v>17.253399641074299</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L32" s="30">
         <v>1.58344119768729</v>
@@ -3647,37 +3642,37 @@
     </row>
     <row r="33" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>149</v>
-      </c>
       <c r="C33" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D33" s="27">
         <v>41.5003191809867</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F33" s="29">
         <v>19.7701371763944</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" s="29">
         <v>9.8093786178960194</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J33" s="29">
         <v>8.5282375977073404</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L33" s="30">
         <v>3.74647492547314</v>
@@ -3697,37 +3692,37 @@
     </row>
     <row r="34" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>152</v>
-      </c>
       <c r="C34" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="27">
         <v>94.621441510108795</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F34" s="29">
         <v>2.7840036109276198</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" s="29">
         <v>1.68336540083925</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="29">
         <v>0.39351558042696999</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L34" s="30">
         <v>0.17592022915604</v>
@@ -3742,42 +3737,42 @@
         <v>68.471902002970097</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>155</v>
-      </c>
       <c r="C35" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35" s="27">
         <v>30.014077253003901</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="29">
         <v>19.787049789487401</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" s="29">
         <v>18.567549808276201</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J35" s="29">
         <v>11.206597959654999</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" s="30">
         <v>3.3441925500460399</v>
@@ -3797,37 +3792,37 @@
     </row>
     <row r="36" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A36" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>157</v>
-      </c>
       <c r="C36" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="27">
         <v>32.440340500148601</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F36" s="29">
         <v>6.4773603458115101</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H36" s="29">
         <v>5.2784094553461101</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J36" s="29">
         <v>4.1933886257005</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" s="30">
         <v>3.68341214907027</v>
@@ -3847,37 +3842,37 @@
     </row>
     <row r="37" spans="1:16" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>160</v>
-      </c>
       <c r="C37" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37" s="27">
         <v>56.899574569229799</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F37" s="29">
         <v>12.728204649555</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H37" s="29">
         <v>3.0739778674032698</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J37" s="29">
         <v>3.0029360752523999</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L37" s="30">
         <v>2.1502706326405501</v>
@@ -3897,37 +3892,37 @@
     </row>
     <row r="38" spans="1:16" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="49">
         <v>17.714439003556699</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" s="51">
         <v>7.7759144328440399</v>
       </c>
       <c r="G38" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="51">
         <v>5.4314614618009003</v>
       </c>
       <c r="I38" s="50" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" s="51">
         <v>4.3649551153639896</v>
       </c>
       <c r="K38" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L38" s="52">
         <v>4.0611300611201004</v>
@@ -3947,37 +3942,37 @@
     </row>
     <row r="39" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="65" t="s">
-        <v>165</v>
-      </c>
       <c r="C39" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" s="58">
         <v>41.828819775554003</v>
       </c>
       <c r="E39" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="60">
         <v>32.634193835081902</v>
       </c>
       <c r="G39" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" s="60">
         <v>18.917704104208699</v>
       </c>
       <c r="I39" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J39" s="60">
         <v>2.2529637611876501</v>
       </c>
       <c r="K39" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L39" s="61">
         <v>0.95319675962845996</v>
@@ -3997,37 +3992,37 @@
     </row>
     <row r="40" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A40" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="35" t="s">
-        <v>169</v>
-      </c>
       <c r="C40" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D40" s="27">
         <v>11.4177672387193</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" s="29">
         <v>9.1041066572169704</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H40" s="29">
         <v>5.6350562324062397</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J40" s="29">
         <v>4.8217620534335204</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L40" s="30">
         <v>3.8075029033963199</v>
@@ -4047,37 +4042,37 @@
     </row>
     <row r="41" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="B41" s="65" t="s">
-        <v>171</v>
-      </c>
       <c r="C41" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41" s="58">
         <v>85.752314851773605</v>
       </c>
       <c r="E41" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="60">
         <v>4.9503663812677203</v>
       </c>
       <c r="G41" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H41" s="60">
         <v>4.5308730405438897</v>
       </c>
       <c r="I41" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41" s="60">
         <v>3.2416610440340299</v>
       </c>
       <c r="K41" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L41" s="61">
         <v>0.33681400331761002</v>
@@ -4089,7 +4084,7 @@
         <v>2</v>
       </c>
       <c r="O41" s="61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P41" s="64">
         <v>0.75022862314462002</v>
@@ -4097,37 +4092,37 @@
     </row>
     <row r="42" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="65" t="s">
-        <v>174</v>
-      </c>
       <c r="C42" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="58">
         <v>38.397223219975601</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="60">
         <v>15.671648893932099</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H42" s="60">
         <v>13.647160994494801</v>
       </c>
       <c r="I42" s="59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J42" s="60">
         <v>8.5852504471434408</v>
       </c>
       <c r="K42" s="59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L42" s="61">
         <v>8.3657876493788699</v>
@@ -4147,37 +4142,37 @@
     </row>
     <row r="43" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A43" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>178</v>
-      </c>
       <c r="C43" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" s="27">
         <v>11.8209983346587</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F43" s="29">
         <v>11.411166383005</v>
       </c>
       <c r="G43" s="28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H43" s="29">
         <v>8.2238512652662799</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J43" s="29">
         <v>4.5115487483847598</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L43" s="30">
         <v>4.2333900336830501</v>
@@ -4197,37 +4192,37 @@
     </row>
     <row r="44" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="35" t="s">
-        <v>182</v>
-      </c>
       <c r="C44" s="36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44" s="27">
         <v>11.9723434250302</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="29">
         <v>5.2789715250522997</v>
       </c>
       <c r="G44" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H44" s="29">
         <v>3.9200518277432801</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J44" s="29">
         <v>3.0967461545229402</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L44" s="30">
         <v>3.0168526039636099</v>
@@ -4247,37 +4242,37 @@
     </row>
     <row r="45" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45" s="49">
         <v>27.490293630773198</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="51">
         <v>9.2674752457649792</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="51">
         <v>7.1022737600767201</v>
       </c>
       <c r="I45" s="50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J45" s="51">
         <v>4.4110502042968802</v>
       </c>
       <c r="K45" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L45" s="52">
         <v>2.6244611315819699</v>
@@ -4297,37 +4292,37 @@
     </row>
     <row r="46" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A46" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>186</v>
-      </c>
       <c r="C46" s="36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D46" s="27">
         <v>29.226864325884701</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" s="29">
         <v>24.0291992720061</v>
       </c>
       <c r="G46" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H46" s="29">
         <v>12.284162693815601</v>
       </c>
       <c r="I46" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J46" s="29">
         <v>9.3154801980611204</v>
       </c>
       <c r="K46" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L46" s="30">
         <v>3.1510024276187001</v>
@@ -4347,37 +4342,37 @@
     </row>
     <row r="47" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="35" t="s">
-        <v>188</v>
-      </c>
       <c r="C47" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D47" s="27">
         <v>77.534056100641294</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F47" s="29">
         <v>6.6178820580493802</v>
       </c>
       <c r="G47" s="28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H47" s="29">
         <v>2.9074581441345799</v>
       </c>
       <c r="I47" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J47" s="29">
         <v>2.5921501340623099</v>
       </c>
       <c r="K47" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L47" s="30">
         <v>2.2703628417417798</v>
@@ -4397,37 +4392,37 @@
     </row>
     <row r="48" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A48" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B48" s="35" t="s">
-        <v>191</v>
-      </c>
       <c r="C48" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="27">
         <v>42.306426413950398</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F48" s="29">
         <v>23.881974649174602</v>
       </c>
       <c r="G48" s="28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H48" s="29">
         <v>4.4127764000323397</v>
       </c>
       <c r="I48" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J48" s="29">
         <v>3.5077899370507502</v>
       </c>
       <c r="K48" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L48" s="30">
         <v>3.1589907979142802</v>
@@ -4447,37 +4442,37 @@
     </row>
     <row r="49" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A49" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B49" s="35" t="s">
-        <v>194</v>
-      </c>
       <c r="C49" s="36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="27">
         <v>27.880244568599601</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F49" s="29">
         <v>7.9140016201005201</v>
       </c>
       <c r="G49" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H49" s="29">
         <v>7.8301504375244999</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J49" s="29">
         <v>7.4111719895470198</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L49" s="30">
         <v>6.8904487930756799</v>
@@ -4497,37 +4492,37 @@
     </row>
     <row r="50" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A50" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="35" t="s">
-        <v>197</v>
-      </c>
       <c r="C50" s="36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="27">
         <v>26.208285493222501</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F50" s="29">
         <v>17.974360288030699</v>
       </c>
       <c r="G50" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="29">
         <v>8.6727756733377692</v>
       </c>
       <c r="I50" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J50" s="29">
         <v>6.4538950144921499</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L50" s="30">
         <v>5.8098846408217897</v>
@@ -4547,37 +4542,37 @@
     </row>
     <row r="51" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A51" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="25" t="s">
-        <v>200</v>
-      </c>
       <c r="C51" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="27">
         <v>50.0304910267701</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" s="29">
         <v>21.241580069985801</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H51" s="29">
         <v>7.2984463200247696</v>
       </c>
       <c r="I51" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J51" s="29">
         <v>2.3181236921753601</v>
       </c>
       <c r="K51" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L51" s="30">
         <v>2.31758271961312</v>
@@ -4592,42 +4587,42 @@
         <v>37.442924059639502</v>
       </c>
       <c r="P51" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="35" t="s">
-        <v>203</v>
-      </c>
       <c r="C52" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="27">
         <v>46.559274134945099</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F52" s="29">
         <v>46.552911846151403</v>
       </c>
       <c r="G52" s="28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H52" s="29">
         <v>1.4969975659513499</v>
       </c>
       <c r="I52" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J52" s="29">
         <v>0.77390768100340002</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L52" s="30">
         <v>0.72650599141515004</v>
@@ -4647,37 +4642,37 @@
     </row>
     <row r="53" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="35" t="s">
-        <v>207</v>
-      </c>
       <c r="C53" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="27">
         <v>51.240164706859801</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F53" s="29">
         <v>28.558291307886801</v>
       </c>
       <c r="G53" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H53" s="29">
         <v>14.0190618531451</v>
       </c>
       <c r="I53" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" s="29">
         <v>3.05897530038389</v>
       </c>
       <c r="K53" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L53" s="30">
         <v>1.3109765121383901</v>
@@ -4697,37 +4692,37 @@
     </row>
     <row r="54" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="C54" s="36" t="s">
         <v>209</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>210</v>
       </c>
       <c r="D54" s="27">
         <v>39.526923252266002</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54" s="29">
         <v>20.815919280689599</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H54" s="29">
         <v>14.919378395420599</v>
       </c>
       <c r="I54" s="28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" s="29">
         <v>9.3453293278499601</v>
       </c>
       <c r="K54" s="28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L54" s="30">
         <v>7.4730029700690501</v>
@@ -4747,37 +4742,37 @@
     </row>
     <row r="55" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>212</v>
-      </c>
       <c r="C55" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="27">
         <v>92.360554899237101</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F55" s="29">
         <v>2.0032879115634801</v>
       </c>
       <c r="G55" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55" s="29">
         <v>1.2415477681578899</v>
       </c>
       <c r="I55" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J55" s="29">
         <v>1.0791234539143999</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L55" s="30">
         <v>0.52294865864310003</v>
@@ -4797,37 +4792,37 @@
     </row>
     <row r="56" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B56" s="35" t="s">
-        <v>215</v>
-      </c>
       <c r="C56" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" s="27">
         <v>53.534985168374597</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F56" s="29">
         <v>25.300245193502001</v>
       </c>
       <c r="G56" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H56" s="29">
         <v>6.9803152945762204</v>
       </c>
       <c r="I56" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J56" s="29">
         <v>4.9992479580979801</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L56" s="30">
         <v>2.2621969286098298</v>
@@ -4847,37 +4842,37 @@
     </row>
     <row r="57" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="B57" s="65" t="s">
-        <v>217</v>
-      </c>
       <c r="C57" s="57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57" s="58">
         <v>72.178169527616006</v>
       </c>
       <c r="E57" s="59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="60">
         <v>12.1118447189061</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H57" s="60">
         <v>3.5379174563843199</v>
       </c>
       <c r="I57" s="59" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J57" s="60">
         <v>3.28714101400289</v>
       </c>
       <c r="K57" s="59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L57" s="61">
         <v>1.10968968405603</v>
@@ -4897,37 +4892,37 @@
     </row>
     <row r="58" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B58" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B58" s="35" t="s">
-        <v>220</v>
-      </c>
       <c r="C58" s="36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" s="27">
         <v>15.5317155353034</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" s="29">
         <v>14.3924440963529</v>
       </c>
       <c r="G58" s="28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H58" s="29">
         <v>7.9331026226453103</v>
       </c>
       <c r="I58" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J58" s="29">
         <v>7.3738596180721601</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L58" s="30">
         <v>4.4080849914063496</v>
@@ -4947,37 +4942,37 @@
     </row>
     <row r="59" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B59" s="35" t="s">
-        <v>223</v>
-      </c>
       <c r="C59" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D59" s="27">
         <v>27.726732447584698</v>
       </c>
       <c r="E59" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F59" s="29">
         <v>16.688235519666801</v>
       </c>
       <c r="G59" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59" s="29">
         <v>16.184457151817899</v>
       </c>
       <c r="I59" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J59" s="29">
         <v>10.6258632627856</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L59" s="30">
         <v>4.7677597789451198</v>
@@ -4997,37 +4992,37 @@
     </row>
     <row r="60" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="B60" s="25" t="s">
-        <v>225</v>
-      </c>
       <c r="C60" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" s="27">
         <v>20.690437357069602</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" s="29">
         <v>9.4749050860486896</v>
       </c>
       <c r="G60" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H60" s="29">
         <v>7.1428843881192101</v>
       </c>
       <c r="I60" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J60" s="29">
         <v>4.8337477864468603</v>
       </c>
       <c r="K60" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L60" s="30">
         <v>4.3815047591246996</v>
@@ -5042,42 +5037,42 @@
         <v>23.061581981638199</v>
       </c>
       <c r="P60" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61" s="68">
         <v>40.505476670941697</v>
       </c>
       <c r="E61" s="69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F61" s="70">
         <v>20.2409171368082</v>
       </c>
       <c r="G61" s="69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H61" s="70">
         <v>6.1123902312097202</v>
       </c>
       <c r="I61" s="69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J61" s="70">
         <v>4.8642022015378403</v>
       </c>
       <c r="K61" s="69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L61" s="71">
         <v>2.5762034449021201</v>
@@ -5097,37 +5092,37 @@
     </row>
     <row r="62" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C62" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62" s="78">
         <v>26.9548047592533</v>
       </c>
       <c r="E62" s="79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F62" s="80">
         <v>10.6749139769985</v>
       </c>
       <c r="G62" s="79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H62" s="80">
         <v>4.8130311759545803</v>
       </c>
       <c r="I62" s="79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J62" s="80">
         <v>3.4317616218607201</v>
       </c>
       <c r="K62" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L62" s="81">
         <v>2.2074624327193102</v>
@@ -5147,37 +5142,37 @@
     </row>
     <row r="63" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C63" s="77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63" s="78">
         <v>4.9426236968286297</v>
       </c>
       <c r="E63" s="79" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F63" s="80">
         <v>4.4699173790324904</v>
       </c>
       <c r="G63" s="79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H63" s="80">
         <v>3.8652452739400598</v>
       </c>
       <c r="I63" s="79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J63" s="80">
         <v>2.9168403829476701</v>
       </c>
       <c r="K63" s="79" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L63" s="81">
         <v>2.4976349961297402</v>
@@ -5192,42 +5187,42 @@
         <v>28.199828168478</v>
       </c>
       <c r="P63" s="84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A64" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="86" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C64" s="87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D64" s="88">
         <v>8.0814211997455097</v>
       </c>
       <c r="E64" s="89" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="90">
         <v>5.5133860568434798</v>
       </c>
       <c r="G64" s="89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H64" s="90">
         <v>3.36481971224906</v>
       </c>
       <c r="I64" s="89" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J64" s="90">
         <v>3.1657701878105602</v>
       </c>
       <c r="K64" s="89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L64" s="91">
         <v>3.0425061714994102</v>
@@ -5247,37 +5242,37 @@
     </row>
     <row r="65" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A65" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="95" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C65" s="96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D65" s="97">
         <v>6.54138348904256</v>
       </c>
       <c r="E65" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F65" s="99">
         <v>5.1305975513427899</v>
       </c>
       <c r="G65" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H65" s="99">
         <v>5.1199684007076796</v>
       </c>
       <c r="I65" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J65" s="99">
         <v>2.4954166451940498</v>
       </c>
       <c r="K65" s="98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L65" s="100">
         <v>2.3731708966340501</v>
@@ -5297,37 +5292,37 @@
     </row>
     <row r="66" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" s="105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D66" s="106">
         <v>5.5986744791667302</v>
       </c>
       <c r="E66" s="107" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="108">
         <v>4.4024871987462104</v>
       </c>
       <c r="G66" s="107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H66" s="108">
         <v>3.8523257323339499</v>
       </c>
       <c r="I66" s="107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J66" s="108">
         <v>2.8327582316372002</v>
       </c>
       <c r="K66" s="107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L66" s="109">
         <v>2.4269883743395599</v>
@@ -5347,37 +5342,37 @@
     </row>
     <row r="67" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A67" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C67" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D67" s="97">
         <v>21.731953719676099</v>
       </c>
       <c r="E67" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F67" s="99">
         <v>7.2405639677356701</v>
       </c>
       <c r="G67" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H67" s="99">
         <v>4.5868512065233196</v>
       </c>
       <c r="I67" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J67" s="99">
         <v>4.2589740114594496</v>
       </c>
       <c r="K67" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L67" s="100">
         <v>4.0236328189667399</v>
@@ -5397,37 +5392,37 @@
     </row>
     <row r="68" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A68" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C68" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="97">
         <v>32.490961539766801</v>
       </c>
       <c r="E68" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F68" s="99">
         <v>12.580585439249401</v>
       </c>
       <c r="G68" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68" s="99">
         <v>4.3829105380142801</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J68" s="99">
         <v>3.0866106314559598</v>
       </c>
       <c r="K68" s="98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L68" s="100">
         <v>2.66406948153822</v>
@@ -5442,42 +5437,42 @@
         <v>21.749543490332201</v>
       </c>
       <c r="P68" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A69" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" s="95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C69" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="97">
         <v>22.479217045463301</v>
       </c>
       <c r="E69" s="98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F69" s="99">
         <v>9.5966333820746197</v>
       </c>
       <c r="G69" s="98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H69" s="99">
         <v>7.5782897543458603</v>
       </c>
       <c r="I69" s="98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J69" s="99">
         <v>5.2942577364129404</v>
       </c>
       <c r="K69" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L69" s="100">
         <v>4.1971996572657604</v>
@@ -5497,37 +5492,37 @@
     </row>
     <row r="70" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A70" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="95" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C70" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70" s="97">
         <v>64.794028518866497</v>
       </c>
       <c r="E70" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F70" s="99">
         <v>9.3691774131592105</v>
       </c>
       <c r="G70" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H70" s="99">
         <v>4.3081287853993304</v>
       </c>
       <c r="I70" s="98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J70" s="99">
         <v>2.8531415842925099</v>
       </c>
       <c r="K70" s="98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L70" s="100">
         <v>2.76512111348725</v>
@@ -5547,37 +5542,37 @@
     </row>
     <row r="71" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A71" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D71" s="97">
         <v>40.505476670941697</v>
       </c>
       <c r="E71" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F71" s="99">
         <v>20.2409171368082</v>
       </c>
       <c r="G71" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H71" s="99">
         <v>6.1123902312097202</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J71" s="99">
         <v>4.8642022015378403</v>
       </c>
       <c r="K71" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L71" s="100">
         <v>2.5762034449021201</v>
@@ -5597,37 +5592,37 @@
     </row>
     <row r="72" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C72" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="97">
         <v>18.602018284536399</v>
       </c>
       <c r="E72" s="98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F72" s="99">
         <v>12.926875461944</v>
       </c>
       <c r="G72" s="98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H72" s="99">
         <v>7.7959314264179396</v>
       </c>
       <c r="I72" s="98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J72" s="99">
         <v>6.2933506502465901</v>
       </c>
       <c r="K72" s="98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L72" s="100">
         <v>6.1627229839443496</v>
@@ -5647,37 +5642,37 @@
     </row>
     <row r="73" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A73" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="95" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C73" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D73" s="97">
         <v>14.636026297950799</v>
       </c>
       <c r="E73" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="99">
         <v>10.7610658602866</v>
       </c>
       <c r="G73" s="98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73" s="99">
         <v>5.61154246077934</v>
       </c>
       <c r="I73" s="98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J73" s="99">
         <v>4.8397136937436303</v>
       </c>
       <c r="K73" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L73" s="100">
         <v>3.8442778505151298</v>
@@ -5697,37 +5692,37 @@
     </row>
     <row r="74" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A74" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B74" s="95" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C74" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74" s="97">
         <v>32.687017737593401</v>
       </c>
       <c r="E74" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F74" s="99">
         <v>10.7049060736913</v>
       </c>
       <c r="G74" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H74" s="99">
         <v>6.4550218582514196</v>
       </c>
       <c r="I74" s="98" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J74" s="99">
         <v>5.0771829887875004</v>
       </c>
       <c r="K74" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L74" s="100">
         <v>3.4456063724998902</v>
@@ -5747,37 +5742,37 @@
     </row>
     <row r="75" spans="1:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B75" s="104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C75" s="113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75" s="114">
         <v>72.850686590753895</v>
       </c>
       <c r="E75" s="115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F75" s="116">
         <v>6.8542531392280202</v>
       </c>
       <c r="G75" s="115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75" s="116">
         <v>4.09032430155826</v>
       </c>
       <c r="I75" s="115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J75" s="116">
         <v>3.1450021879707499</v>
       </c>
       <c r="K75" s="115" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L75" s="100">
         <v>2.2825936674392699</v>
@@ -5792,42 +5787,42 @@
         <v>40.493809726473998</v>
       </c>
       <c r="P75" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A76" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C76" s="119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="120">
         <v>11.557441101469101</v>
       </c>
       <c r="E76" s="121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" s="122">
         <v>4.8483750640742898</v>
       </c>
       <c r="G76" s="121" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H76" s="122">
         <v>4.3390926404760997</v>
       </c>
       <c r="I76" s="121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J76" s="122">
         <v>3.2364132868143098</v>
       </c>
       <c r="K76" s="121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L76" s="91">
         <v>2.1326560143339899</v>
@@ -5842,42 +5837,42 @@
         <v>50.024226823068197</v>
       </c>
       <c r="P76" s="94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A77" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77" s="95" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77" s="97">
         <v>11.2929429335114</v>
       </c>
       <c r="E77" s="98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F77" s="99">
         <v>6.3308507775559004</v>
       </c>
       <c r="G77" s="98" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H77" s="99">
         <v>6.1073075144349804</v>
       </c>
       <c r="I77" s="98" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J77" s="99">
         <v>4.7326725652589596</v>
       </c>
       <c r="K77" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L77" s="100">
         <v>3.8901109808657801</v>
@@ -5892,42 +5887,42 @@
         <v>18.025248461525798</v>
       </c>
       <c r="P77" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A78" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="95" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C78" s="96" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D78" s="97">
         <v>6.6800870647215103</v>
       </c>
       <c r="E78" s="98" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F78" s="99">
         <v>4.3104450648249797</v>
       </c>
       <c r="G78" s="98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H78" s="99">
         <v>3.2485369413419698</v>
       </c>
       <c r="I78" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J78" s="99">
         <v>3.03990949927808</v>
       </c>
       <c r="K78" s="98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L78" s="100">
         <v>2.2113188911933199</v>
@@ -5942,42 +5937,42 @@
         <v>49.318897250394201</v>
       </c>
       <c r="P78" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B79" s="104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D79" s="106">
         <v>6.6967582105758598</v>
       </c>
       <c r="E79" s="107" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F79" s="108">
         <v>3.28413502504897</v>
       </c>
       <c r="G79" s="107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H79" s="108">
         <v>3.2139054076486002</v>
       </c>
       <c r="I79" s="107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J79" s="108">
         <v>3.0227600619190902</v>
       </c>
       <c r="K79" s="107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L79" s="109">
         <v>2.2702183377742</v>
@@ -5992,42 +5987,42 @@
         <v>29.850143772159601</v>
       </c>
       <c r="P79" s="112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A80" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B80" s="95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C80" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80" s="97">
         <v>68.708887083061896</v>
       </c>
       <c r="E80" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F80" s="99">
         <v>12.2616693007288</v>
       </c>
       <c r="G80" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H80" s="99">
         <v>4.4948677518342102</v>
       </c>
       <c r="I80" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J80" s="99">
         <v>1.4196858615435599</v>
       </c>
       <c r="K80" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L80" s="100">
         <v>1.3572579285872299</v>
@@ -6042,42 +6037,42 @@
         <v>22.2264025333216</v>
       </c>
       <c r="P80" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A81" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B81" s="95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D81" s="97">
         <v>42.148716535793902</v>
       </c>
       <c r="E81" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81" s="99">
         <v>10.994380613872201</v>
       </c>
       <c r="G81" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H81" s="99">
         <v>8.3213196544748804</v>
       </c>
       <c r="I81" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J81" s="99">
         <v>3.06188114149615</v>
       </c>
       <c r="K81" s="98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L81" s="100">
         <v>1.6048892078416901</v>
@@ -6092,42 +6087,42 @@
         <v>35.2659687311684</v>
       </c>
       <c r="P81" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A82" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="97">
         <v>15.679866870435299</v>
       </c>
       <c r="E82" s="98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F82" s="99">
         <v>4.5267161870234798</v>
       </c>
       <c r="G82" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H82" s="99">
         <v>3.3898065841906102</v>
       </c>
       <c r="I82" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J82" s="99">
         <v>2.8607171366816</v>
       </c>
       <c r="K82" s="98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L82" s="100">
         <v>2.8127101511041399</v>
@@ -6142,42 +6137,42 @@
         <v>23.3011724236612</v>
       </c>
       <c r="P82" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="105" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D83" s="106">
         <v>4.7930351484346199</v>
       </c>
       <c r="E83" s="107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F83" s="108">
         <v>3.2621193766862202</v>
       </c>
       <c r="G83" s="107" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H83" s="108">
         <v>3.16156199389741</v>
       </c>
       <c r="I83" s="107" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J83" s="108">
         <v>2.6259607505940799</v>
       </c>
       <c r="K83" s="107" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L83" s="109">
         <v>2.4419780295414002</v>
@@ -6192,42 +6187,42 @@
         <v>27.570965563126101</v>
       </c>
       <c r="P83" s="112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A84" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B84" s="95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C84" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" s="97">
         <v>31.136135437469299</v>
       </c>
       <c r="E84" s="125" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F84" s="126">
         <v>7.30891062122131</v>
       </c>
       <c r="G84" s="125" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H84" s="126">
         <v>7.1771869223087696</v>
       </c>
       <c r="I84" s="125" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J84" s="126">
         <v>5.2040130269014497</v>
       </c>
       <c r="K84" s="125" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L84" s="127">
         <v>3.6296324142118799</v>
@@ -6242,42 +6237,42 @@
         <v>18.935407403318798</v>
       </c>
       <c r="P84" s="130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A85" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C85" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" s="97">
         <v>22.687194830135699</v>
       </c>
       <c r="E85" s="98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F85" s="99">
         <v>20.473017798812801</v>
       </c>
       <c r="G85" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H85" s="99">
         <v>4.6899682616129299</v>
       </c>
       <c r="I85" s="98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J85" s="99">
         <v>3.3636107251318799</v>
       </c>
       <c r="K85" s="98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L85" s="100">
         <v>2.8037106729648298</v>
@@ -6292,42 +6287,42 @@
         <v>7.6079266150250504</v>
       </c>
       <c r="P85" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A86" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B86" s="95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86" s="97">
         <v>34.967270010382499</v>
       </c>
       <c r="E86" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F86" s="99">
         <v>7.3124614712317202</v>
       </c>
       <c r="G86" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H86" s="99">
         <v>6.4915554298502904</v>
       </c>
       <c r="I86" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J86" s="99">
         <v>4.4701462209289504</v>
       </c>
       <c r="K86" s="98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L86" s="100">
         <v>2.2244112555901299</v>
@@ -6342,42 +6337,42 @@
         <v>22.636114997922501</v>
       </c>
       <c r="P86" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A87" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B87" s="95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C87" s="96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D87" s="97">
         <v>4.3833997292356202</v>
       </c>
       <c r="E87" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" s="99">
         <v>3.7214229772160801</v>
       </c>
       <c r="G87" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H87" s="99">
         <v>3.3636634421295999</v>
       </c>
       <c r="I87" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J87" s="99">
         <v>2.1462605990391701</v>
       </c>
       <c r="K87" s="98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L87" s="100">
         <v>2.0713922263413398</v>
@@ -6392,42 +6387,42 @@
         <v>22.784581869320501</v>
       </c>
       <c r="P87" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A88" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B88" s="95" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C88" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88" s="97">
         <v>18.650084453955898</v>
       </c>
       <c r="E88" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F88" s="99">
         <v>11.6290198019641</v>
       </c>
       <c r="G88" s="98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H88" s="99">
         <v>5.9700644533472902</v>
       </c>
       <c r="I88" s="98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J88" s="99">
         <v>5.1712255560074301</v>
       </c>
       <c r="K88" s="98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L88" s="100">
         <v>4.7480459004898297</v>
@@ -6442,42 +6437,42 @@
         <v>28.7748282759704</v>
       </c>
       <c r="P88" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A89" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B89" s="95" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C89" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89" s="97">
         <v>6.6327971645973403</v>
       </c>
       <c r="E89" s="98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F89" s="99">
         <v>4.7329154146814298</v>
       </c>
       <c r="G89" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H89" s="99">
         <v>4.6432096455298097</v>
       </c>
       <c r="I89" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J89" s="99">
         <v>3.7432575611491199</v>
       </c>
       <c r="K89" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L89" s="100">
         <v>3.3016289453391701</v>
@@ -6492,42 +6487,42 @@
         <v>25.078802611966999</v>
       </c>
       <c r="P89" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B90" s="104" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C90" s="113" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D90" s="114">
         <v>5.9764587787536803</v>
       </c>
       <c r="E90" s="115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F90" s="116">
         <v>4.4206411431471402</v>
       </c>
       <c r="G90" s="115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H90" s="116">
         <v>4.1402724094631704</v>
       </c>
       <c r="I90" s="115" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J90" s="116">
         <v>3.2612984359238602</v>
       </c>
       <c r="K90" s="115" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L90" s="100">
         <v>2.6365418750830298</v>
@@ -6542,42 +6537,42 @@
         <v>32.237011529709697</v>
       </c>
       <c r="P90" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A91" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C91" s="119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D91" s="120">
         <v>28.390188023264901</v>
       </c>
       <c r="E91" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F91" s="122">
         <v>17.883613987666202</v>
       </c>
       <c r="G91" s="121" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H91" s="122">
         <v>5.3170647677384997</v>
       </c>
       <c r="I91" s="121" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J91" s="122">
         <v>5.0179556741449103</v>
       </c>
       <c r="K91" s="121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L91" s="91">
         <v>2.5325692798977899</v>
@@ -6592,42 +6587,42 @@
         <v>23.3289423948085</v>
       </c>
       <c r="P91" s="94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A92" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="95" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C92" s="96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D92" s="97">
         <v>8.2348700769273897</v>
       </c>
       <c r="E92" s="98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92" s="99">
         <v>8.0298265097222199</v>
       </c>
       <c r="G92" s="98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92" s="99">
         <v>7.7934810499453704</v>
       </c>
       <c r="I92" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J92" s="99">
         <v>7.0691320144051604</v>
       </c>
       <c r="K92" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L92" s="100">
         <v>5.8003284308111898</v>
@@ -6642,42 +6637,42 @@
         <v>19.015559107346601</v>
       </c>
       <c r="P92" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A93" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B93" s="95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C93" s="96" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D93" s="97">
         <v>13.626209708130601</v>
       </c>
       <c r="E93" s="98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F93" s="99">
         <v>9.4962633221970698</v>
       </c>
       <c r="G93" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H93" s="99">
         <v>8.6198788251565492</v>
       </c>
       <c r="I93" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J93" s="99">
         <v>5.0332379665678104</v>
       </c>
       <c r="K93" s="98" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L93" s="100">
         <v>4.2247897854262204</v>
@@ -6692,42 +6687,42 @@
         <v>38.785286579872199</v>
       </c>
       <c r="P93" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A94" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B94" s="95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C94" s="96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D94" s="97">
         <v>15.352705345187101</v>
       </c>
       <c r="E94" s="98" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F94" s="99">
         <v>13.8047659226071</v>
       </c>
       <c r="G94" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H94" s="99">
         <v>5.2405106820301404</v>
       </c>
       <c r="I94" s="98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J94" s="99">
         <v>2.8399554593443002</v>
       </c>
       <c r="K94" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L94" s="100">
         <v>2.2257662826622</v>
@@ -6742,42 +6737,42 @@
         <v>111.596307383292</v>
       </c>
       <c r="P94" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A95" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B95" s="95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C95" s="96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" s="97">
         <v>30.461019854780599</v>
       </c>
       <c r="E95" s="98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F95" s="99">
         <v>11.5416640972267</v>
       </c>
       <c r="G95" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H95" s="99">
         <v>11.2449419820451</v>
       </c>
       <c r="I95" s="98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J95" s="99">
         <v>5.2458370470735698</v>
       </c>
       <c r="K95" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L95" s="100">
         <v>4.0389997242427196</v>
@@ -6792,42 +6787,42 @@
         <v>19.834744611285</v>
       </c>
       <c r="P95" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B96" s="104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C96" s="105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D96" s="106">
         <v>32.038273261587598</v>
       </c>
       <c r="E96" s="107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F96" s="108">
         <v>11.6553715794065</v>
       </c>
       <c r="G96" s="107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H96" s="108">
         <v>7.5961395231926403</v>
       </c>
       <c r="I96" s="107" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J96" s="108">
         <v>2.8751321965952199</v>
       </c>
       <c r="K96" s="107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L96" s="109">
         <v>2.4869172711882199</v>
@@ -6842,42 +6837,42 @@
         <v>32.267782003419903</v>
       </c>
       <c r="P96" s="112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A97" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B97" s="95" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C97" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97" s="97">
         <v>46.5296373345682</v>
       </c>
       <c r="E97" s="98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F97" s="99">
         <v>9.8823052310260309</v>
       </c>
       <c r="G97" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97" s="99">
         <v>5.1320369889374096</v>
       </c>
       <c r="I97" s="98" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J97" s="99">
         <v>3.5577004528787799</v>
       </c>
       <c r="K97" s="98" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L97" s="100">
         <v>2.3474315348246302</v>
@@ -6892,42 +6887,42 @@
         <v>20.316177819727098</v>
       </c>
       <c r="P97" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="42" x14ac:dyDescent="0.35">
       <c r="A98" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" s="95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C98" s="96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D98" s="97">
         <v>34.080533057647301</v>
       </c>
       <c r="E98" s="98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F98" s="99">
         <v>3.94983383129007</v>
       </c>
       <c r="G98" s="98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H98" s="99">
         <v>3.7736048813099599</v>
       </c>
       <c r="I98" s="98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J98" s="99">
         <v>3.7367074965704701</v>
       </c>
       <c r="K98" s="98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L98" s="100">
         <v>3.6194358777770201</v>
@@ -6942,42 +6937,42 @@
         <v>19.241640923017499</v>
       </c>
       <c r="P98" s="103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B99" s="104" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C99" s="105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99" s="106">
         <v>74.908577721939494</v>
       </c>
       <c r="E99" s="107" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F99" s="108">
         <v>5.8523392699723296</v>
       </c>
       <c r="G99" s="107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H99" s="108">
         <v>4.8348510927394601</v>
       </c>
       <c r="I99" s="107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J99" s="108">
         <v>3.8986769356905402</v>
       </c>
       <c r="K99" s="107" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L99" s="109">
         <v>1.72178806503847</v>
@@ -6992,7 +6987,7 @@
         <v>29.360226564954601</v>
       </c>
       <c r="P99" s="112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.35">
@@ -7015,27 +7010,27 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="138" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
@@ -7043,27 +7038,27 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7073,7 +7068,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -856,6 +856,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated February 19, 2021).</t>
   </si>
   <si>
@@ -868,88 +871,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -965,7 +890,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1081,15 +1006,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2048,7 +1964,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7028,18 +6944,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="145" t="s">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105" s="138" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="145"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="145" t="s">
         <v>279</v>
       </c>
+    </row>
+    <row r="109" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="145"/>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -7052,25 +6968,27 @@
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -4156,7 +4156,7 @@
         <v>3.4166145190530003E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="46" t="s">
         <v>70</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="46" t="s">
         <v>70</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>0.25620975913291999</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="75" t="s">
         <v>70</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>1.277965854985E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A67" s="85" t="s">
         <v>70</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>8.0018830930169996E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A68" s="85" t="s">
         <v>70</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A69" s="85" t="s">
         <v>70</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0.46535977877066997</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A71" s="85" t="s">
         <v>70</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>5.3313351275439999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A74" s="85" t="s">
         <v>70</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="85" t="s">
         <v>70</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A80" s="85" t="s">
         <v>70</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A81" s="85" t="s">
         <v>70</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A82" s="85" t="s">
         <v>70</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A86" s="85" t="s">
         <v>70</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="85" t="s">
         <v>70</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A93" s="85" t="s">
         <v>70</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" ht="63" x14ac:dyDescent="0.35">
       <c r="A94" s="85" t="s">
         <v>70</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:16" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="85" t="s">
         <v>70</v>
       </c>

--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -853,7 +853,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
   </si>
   <si>
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated February 19, 2021).</t>
@@ -6226,7 +6226,7 @@
         <v>79</v>
       </c>
       <c r="O92" s="91">
-        <v>19.015559107346601</v>
+        <v>19.0037105188085</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">

--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="285">
   <si>
     <t>Table 20: Export diversification</t>
   </si>
@@ -34,31 +34,31 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Product category with largest share of total exports, 2019</t>
+    <t>Product category with largest share of total exports, 2020</t>
   </si>
   <si>
     <t>% of exports</t>
   </si>
   <si>
-    <t>Product category comprising second largest share of total exports, 2019</t>
-  </si>
-  <si>
-    <t>Product category comprising third largest share of total exports, 2019</t>
-  </si>
-  <si>
-    <t>Product category comprising fourth largest share of total exports, 2019</t>
-  </si>
-  <si>
-    <t>Product category comprising fifth largest share of total exports, 2019</t>
-  </si>
-  <si>
-    <t>Number of products amounting to 75% of total exports, 2019</t>
-  </si>
-  <si>
-    <t>Number of products amounting to 90% of total exports, 2019</t>
-  </si>
-  <si>
-    <t>Value of total exports of goods and services as a % of GDP, 2019</t>
+    <t>Product category comprising second largest share of total exports, 2020</t>
+  </si>
+  <si>
+    <t>Product category comprising third largest share of total exports, 2020</t>
+  </si>
+  <si>
+    <t>Product category comprising fourth largest share of total exports, 2020</t>
+  </si>
+  <si>
+    <t>Product category comprising fifth largest share of total exports, 2020</t>
+  </si>
+  <si>
+    <t>Number of products amounting to 75% of total exports, 2020</t>
+  </si>
+  <si>
+    <t>Number of products amounting to 90% of total exports, 2020</t>
+  </si>
+  <si>
+    <t>Value of total exports of goods and services as a % of GDP, 2020</t>
   </si>
   <si>
     <t>AGO</t>
@@ -79,729 +79,735 @@
     <t>Petroleum oils, oils from bituminous minerals, not crude; preparations n.e.s. containing less than 70% petroleum oils, oils from bituminous minerals; these being the basic constituents of the preparat</t>
   </si>
   <si>
+    <t>Granite, porphyry, basalt, sandstone, other monumental and building stone, whether or not roughly trimmed, cut, by sawing etc, into blocks or slabs of a rectangular (including square) shape</t>
+  </si>
+  <si>
+    <t>BWA</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Gold (including gold plated with platinum) unwrought or in semi-manufactured forms, or in powder form</t>
+  </si>
+  <si>
+    <t>Insulated wire, cable and other electric conductors, connector fitted or not; optical fibre cables of individually sheathed fibres, whether or not assembled with electric conductors or fitted with con</t>
+  </si>
+  <si>
+    <t>Bovine animals; live</t>
+  </si>
+  <si>
+    <t>Carbonates; peroxocarbonates (percarbonates); commercial ammonium carbonate containing ammonium carbamate</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Odoriferous substances and mixtures (including alcoholic solutions) with a basis of one or more of these substances, of a kind used as raw materials in industry; other preparations based on odoriferou</t>
+  </si>
+  <si>
+    <t>Cane or beet sugar and chemically pure sucrose, in solid form</t>
+  </si>
+  <si>
+    <t>Prepared binders for foundry moulds or cores; chemical products and preparations and residual products of the chemical or allied industries, n.e.s. or included</t>
+  </si>
+  <si>
+    <t>Wood sawn or chipped lengthwise, sliced, peeled, whether or not planed, sanded or finger jointed, of a thickness exceeding 6mm</t>
+  </si>
+  <si>
+    <t>Suits, ensembles, jackets, blazers, trousers, bib and brace overalls, breeches and shorts (other than swimwear); men's or boys' (not knitted or crocheted)</t>
+  </si>
+  <si>
+    <t>LSO</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Suits, ensembles, jackets, dresses, skirts, divided skirts, trousers, bib and brace overalls, breeches and shorts (not swimwear), women's or girls', knitted or crocheted</t>
+  </si>
+  <si>
+    <t>Wool, not carded or combed</t>
+  </si>
+  <si>
+    <t>Electrical apparatus for switching, protecting electrical circuits, for making connections to or in electrical circuits, for a voltage not exceeding 1000 volts</t>
+  </si>
+  <si>
+    <t>MWI</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Tobacco, unmanufactured; tobacco refuse</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Vegetables, dried leguminous; shelled, whether or not skinned or split</t>
+  </si>
+  <si>
+    <t>Ground-nuts; not roasted or otherwise cooked, whether or not shelled or broken</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Aluminium; unwrought</t>
+  </si>
+  <si>
+    <t>Coal; briquettes, ovoids and similar solid fuels manufactured from coal</t>
+  </si>
+  <si>
+    <t>Electrical energy</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Copper; unrefined, copper anodes for electrolytic refining</t>
+  </si>
+  <si>
+    <t>Radioactive chemical elements and radioactive isotopes (including the fissile or fertile chemical elements and isotopes); and their compounds; mixtures and residues containing these products</t>
+  </si>
+  <si>
+    <t>Copper; refined and copper alloys, unwrought</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Platinum; unwrought or in semi-manufactured forms, or in powder form</t>
+  </si>
+  <si>
+    <t>Motor cars and other motor vehicles; principally designed for the transport of persons (other than those of heading no. 8702), including station wagons and racing cars</t>
+  </si>
+  <si>
+    <t>ZMB</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Copper ores and concentrates</t>
+  </si>
+  <si>
+    <t>ZWE</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Nickel ores and concentrates</t>
+  </si>
+  <si>
+    <t>Ferro-alloys</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Southern Africa</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Coffee, whether or not roasted or decaffeinated; husks and skins; coffee substitutes containing coffee in any proportion</t>
+  </si>
+  <si>
+    <t>Iron or non-alloy steel; flat-rolled products, width 600mm or more, clad, plated or coated</t>
+  </si>
+  <si>
+    <t>Cigars, cheroots, cigarillos and cigarettes; of tobacco or of tobacco substitutes</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Cocoa beans; whole or broken, raw or roasted</t>
+  </si>
+  <si>
+    <t>Wood in the rough, whether or not stripped of bark or sapwood, or roughly squared</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>Chad*</t>
+  </si>
+  <si>
+    <t>Oil seeds and oleaginous fruits, others n.e.s. in chapter 12; whether or not broken</t>
+  </si>
+  <si>
+    <t>Lac; natural gums, resins, gum-resins and oleoresins (for example, balsams)</t>
+  </si>
+  <si>
+    <t>Cotton; not carded or combed</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>Congo Republic*</t>
+  </si>
+  <si>
+    <t>Light-vessels, fire-floats, dredgers, floating cranes, other vessels; the navigability of which is subsidiary to main function; floating docks, floating, submersible drilling, production platforms</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Cobalt oxides and hydroxides; commercial cobalt oxides</t>
+  </si>
+  <si>
+    <t>Cobalt; mattes and other intermediate products of cobalt metallurgy, cobalt and articles thereof, including waste and scrap</t>
+  </si>
+  <si>
+    <t>GNQ</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea*</t>
+  </si>
+  <si>
+    <t>Acyclic alcohols and their halogenated, sulphonated, nitrated or nitrosated derivatives</t>
+  </si>
+  <si>
+    <t>Veneer sheets and sheets for plywood (spliced or not) and other wood sawn lengthwise, sliced or peeled, whether or not planed, sanded or finger-jointed, of a thickness not exceeding 6mm</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>Gabon*</t>
+  </si>
+  <si>
+    <t>Manganese ores and concentrates, including ferruginous manganese ores and concentrates with a manganese content of 20% or more, calculated on the dry weight</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t>Turbo-jets, turbo-propellers and other gas turbines</t>
+  </si>
+  <si>
+    <t>Aircraft; parts of heading no. 8801 or 8802</t>
+  </si>
+  <si>
+    <t>Palm oil and its fractions; whether or not refined, but not chemically modified</t>
+  </si>
+  <si>
+    <t>Screws, bolts, nuts, coach screws, screw hooks, rivets, cotters, cotter-pins, washers (including spring washers) and similar articles, of iron or steel</t>
+  </si>
+  <si>
+    <t>Central Africa</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cloves; (whole fruit, cloves and stems)</t>
+  </si>
+  <si>
+    <t>Yachts and other vessels; for pleasure or sports, rowing boats and canoes</t>
+  </si>
+  <si>
+    <t>Oils; essential (concretes, absolutes); concentrates thereof in fats, fixed oils, waxes or the like (obtained by enfleurage or maceration); aqueous distillates, solutions and terpenic by-products ther</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Vessels and other floating structures; for breaking up</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Chlorides; chloride oxides and chloride hydroxides; bromides and bromide oxides; iodides and iodide oxides</t>
+  </si>
+  <si>
+    <t>Animals, n.e.s. in chapter 01; live</t>
+  </si>
+  <si>
+    <t>Sheep and goats; live</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Zinc ores and concentrates</t>
+  </si>
+  <si>
+    <t>Silver (including silver plated with gold or platinum); unwrought or in semi-manufactured forms, or in powder form</t>
+  </si>
+  <si>
+    <t>Shirts; men's or boys' (not knitted or crocheted)</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Vegetables, n.e.s. in chapter 07; fresh or chilled</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Flowers; cut flowers and flower buds of a kind suitable for bouquets or for ornamental purposes, fresh, dried, dyed, bleached, impregnated or otherwise prepared</t>
+  </si>
+  <si>
+    <t>MDG</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Nickel; unwrought</t>
+  </si>
+  <si>
+    <t>Jerseys, pullovers, cardigans, waistcoats and similar articles; knitted or crocheted</t>
+  </si>
+  <si>
+    <t>Titanium ores and concentrates</t>
+  </si>
+  <si>
+    <t>MUS</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Prepared or preserved fish; caviar and caviar substitutes prepared from fish eggs</t>
+  </si>
+  <si>
+    <t>T-shirts, singlets and other vests; knitted or crocheted</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Niobium, tantalum, vanadium or zirconium ores and concentrates</t>
+  </si>
+  <si>
+    <t>Tin ores and concentrates</t>
+  </si>
+  <si>
+    <t>SYC</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Fish; frozen (excluding fish fillets and other fish meat of heading no. 0304)</t>
+  </si>
+  <si>
     <t>Cruise ships, excursion boats, ferry-boats, cargo ships, barges and similar vessels for the transport of persons or goods</t>
   </si>
   <si>
-    <t>BWA</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Insulated wire, cable and other electric conductors, connector fitted or not; optical fibre cables of individually sheathed fibres, whether or not assembled with electric conductors or fitted with con</t>
-  </si>
-  <si>
-    <t>Gold (including gold plated with platinum) unwrought or in semi-manufactured forms, or in powder form</t>
-  </si>
-  <si>
-    <t>Meat of bovine animals; fresh or chilled</t>
-  </si>
-  <si>
-    <t>Carbonates; peroxocarbonates (percarbonates); commercial ammonium carbonate containing ammonium carbamate</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Laboratory, hygienic or pharmaceutical glassware, whether or not graduated or calibrated</t>
-  </si>
-  <si>
-    <t>Odoriferous substances and mixtures (including alcoholic solutions) with a basis of one or more of these substances, of a kind used as raw materials in industry; other preparations based on odoriferou</t>
-  </si>
-  <si>
-    <t>Cane or beet sugar and chemically pure sucrose, in solid form</t>
-  </si>
-  <si>
-    <t>Prepared binders for foundry moulds or cores; chemical products and preparations and residual products of the chemical or allied industries, n.e.s. or included</t>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Swedes, mangolds, fodder roots, hay, lucerne (alfalfa), clover, sainfoin, forage kale, lupines, vetches and similar forage products, whether or not in the form of pellets</t>
+  </si>
+  <si>
+    <t>Onions, shallots, garlic, leeks and other alliaceous vegetables; fresh or chilled</t>
+  </si>
+  <si>
+    <t>Ferrous waste and scrap; remelting scrap ingots of iron or steel</t>
+  </si>
+  <si>
+    <t>SDN</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>TZA</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Nuts, edible; coconuts, Brazil nuts and cashew nuts, fresh or dried, whether or not shelled or peeled</t>
+  </si>
+  <si>
+    <t>Precious metal ores and concentrates</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>East Africa</t>
+  </si>
+  <si>
+    <t>DZA</t>
+  </si>
+  <si>
+    <t>Algeria*</t>
+  </si>
+  <si>
+    <t>Fertilizers; mineral or chemical, nitrogenous</t>
+  </si>
+  <si>
+    <t>Ammonia; anhydrous or in aqueous solution</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Citrus fruit; fresh or dried</t>
+  </si>
+  <si>
+    <t>LBY</t>
+  </si>
+  <si>
+    <t>Libya*</t>
+  </si>
+  <si>
+    <t>Copper; waste and scrap</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>Mauritania*</t>
+  </si>
+  <si>
+    <t>Iron ores and concentrates; including roasted iron pyrites</t>
+  </si>
+  <si>
+    <t>Crustaceans, molluscs and other aquatic invertebrates, prepared or preserved</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Fertilizers; mineral or chemical, containing 2 or 3 of the elements nitrogen, phosphorus, potassium; other fertilisers; goods of chapter 31 in tablets or packages of gross weight not exceeding 10kg</t>
+  </si>
+  <si>
+    <t>Diphosphorus pentoxide; phosphoric acid and polyphosphoric acids</t>
+  </si>
+  <si>
+    <t>Natural calcium phosphates; natural aluminium calcium phosphates and phosphatic chalk</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Olive oil and its fractions; whether or not refined, but not chemically modified</t>
   </si>
   <si>
     <t>Suits, ensembles, jackets, dresses, skirts, divided skirts, trousers, bib and brace overalls, breeches and shorts (other than swimwear); women's or girls' (not knitted or crocheted)</t>
   </si>
   <si>
-    <t>LSO</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Suits, ensembles, jackets, dresses, skirts, divided skirts, trousers, bib and brace overalls, breeches and shorts (not swimwear), women's or girls', knitted or crocheted</t>
-  </si>
-  <si>
-    <t>Suits, ensembles, jackets, blazers, trousers, bib and brace overalls, breeches and shorts (other than swimwear); men's or boys' (not knitted or crocheted)</t>
-  </si>
-  <si>
-    <t>T-shirts, singlets and other vests; knitted or crocheted</t>
-  </si>
-  <si>
-    <t>Jerseys, pullovers, cardigans, waistcoats and similar articles; knitted or crocheted</t>
-  </si>
-  <si>
-    <t>MWI</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Tobacco, unmanufactured; tobacco refuse</t>
-  </si>
-  <si>
-    <t>Tea</t>
-  </si>
-  <si>
-    <t>Vegetables, dried leguminous; shelled, whether or not skinned or split</t>
+    <t>Motor vehicles; parts and accessories, of heading no. 8701 to 8705</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Soya beans; whether or not broken</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Molluscs, whether in shell or not, live, fresh, chilled, frozen, dried, salted in brine; aquatic invertebrates (not crustaceans and molluscs) live, fresh, chilled, frozen, dried, salted or in brine</t>
+  </si>
+  <si>
+    <t>Footwear; parts of footwear; removable in-soles, heel cushions and similar articles; gaiters, leggings and similar articles, and parts thereof</t>
+  </si>
+  <si>
+    <t>Underpants, briefs, nightshirts, pyjamas, bathrobes, dressing gowns and similar articles; men's or boys', knitted or crocheted</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>Côte d’Ivoire</t>
+  </si>
+  <si>
+    <t>Natural rubber, balata, gutta-percha, guayule, chicle and similar gums; in primary forms or in plates, sheets or strip</t>
+  </si>
+  <si>
+    <t>Cocoa; paste; whether or not defatted</t>
+  </si>
+  <si>
+    <t>GMB</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Bulldozers, graders, levellers, scrapers, angledozers, mechanical shovels, excavators, shovel loaders, tamping machines and road rollers, self-propelled</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>GIN</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Aluminium ores and concentrates</t>
+  </si>
+  <si>
+    <t>Aluminium oxide (including artificial corundum); aluminium hydroxide</t>
+  </si>
+  <si>
+    <t>GNB</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>NER</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Uranium or thorium ores and concentrates</t>
+  </si>
+  <si>
+    <t>NGA</t>
+  </si>
+  <si>
+    <t>Nigeria*</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>TGO</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Portland cement, aluminous cement ("ciment fondu"), slag cement, supersulphate cement and similar hydraulic cements, whether or not coloured or in the form of clinkers</t>
+  </si>
+  <si>
+    <t>West Africa</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>World outside Africa</t>
+  </si>
+  <si>
+    <t>Electronic integrated circuits and microassemblies</t>
+  </si>
+  <si>
+    <t>Transmission apparatus for radio-telephony, radio-telegraphy, radio-broadcasting or television, whether or not incorporating reception, sound recording or reproducing apparatus; television cameras; st</t>
+  </si>
+  <si>
+    <t>Latin America and Caribbean</t>
+  </si>
+  <si>
+    <t>Asia (no high inc.)</t>
+  </si>
+  <si>
+    <t>Automatic data processing machines and units thereof; magnetic or optical readers, machines for transcribing data onto data media in coded form and machines for processing such data n.e.s.</t>
+  </si>
+  <si>
+    <t>Electrical apparatus for line telephony or line telegraphy, including line telephone sets with cordless handsets and telecommunication apparatus for carrier-current line systems or for digital line sy</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>COMESA</t>
+  </si>
+  <si>
+    <t>CEN-SAD</t>
+  </si>
+  <si>
+    <t>EAC</t>
+  </si>
+  <si>
+    <t>ECCAS</t>
+  </si>
+  <si>
+    <t>ECOWAS</t>
+  </si>
+  <si>
+    <t>IGAD</t>
+  </si>
+  <si>
+    <t>SADC</t>
+  </si>
+  <si>
+    <t>UMA</t>
+  </si>
+  <si>
+    <t>PALOP</t>
+  </si>
+  <si>
+    <t>ASEAN</t>
+  </si>
+  <si>
+    <t>MERCOSUR</t>
+  </si>
+  <si>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>Medicaments; (not goods of heading no. 3002, 3005 or 3006) consisting of mixed or unmixed products for therapeutic or prophylactic use, put up in measured doses or in forms or packings for retail sale</t>
+  </si>
+  <si>
+    <t>Blood, human or animal; for therapeutic, prophylactic or diagnostic uses; antisera, other blood fractions, modified immunological products, (from biotechnological processes or not); vaccines, toxins,</t>
+  </si>
+  <si>
+    <t>OECD</t>
+  </si>
+  <si>
+    <t>Africa, Resource-rich countries</t>
+  </si>
+  <si>
+    <t>ROW, Resource-rich countries</t>
+  </si>
+  <si>
+    <t>Polymers of ethylene, in primary forms</t>
+  </si>
+  <si>
+    <t>Africa, Non-resource-rich countries</t>
+  </si>
+  <si>
+    <t>ROW, Non-resource-rich countries</t>
+  </si>
+  <si>
+    <t>Africa, Low income countries</t>
+  </si>
+  <si>
+    <t>ROW, Low income countries</t>
   </si>
   <si>
     <t>Nuts (excluding coconuts, Brazils and cashew nuts); fresh or dried, whether or not shelled or peeled</t>
   </si>
   <si>
-    <t>MOZ</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Coal; briquettes, ovoids and similar solid fuels manufactured from coal</t>
-  </si>
-  <si>
-    <t>Aluminium; unwrought</t>
-  </si>
-  <si>
-    <t>Electrical energy</t>
-  </si>
-  <si>
-    <t>NAM</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Copper; unrefined, copper anodes for electrolytic refining</t>
-  </si>
-  <si>
-    <t>Uranium or thorium ores and concentrates</t>
-  </si>
-  <si>
-    <t>Radioactive chemical elements and radioactive isotopes (including the fissile or fertile chemical elements and isotopes); and their compounds; mixtures and residues containing these products</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Platinum; unwrought or in semi-manufactured forms, or in powder form</t>
-  </si>
-  <si>
-    <t>Motor cars and other motor vehicles; principally designed for the transport of persons (other than those of heading no. 8702), including station wagons and racing cars</t>
-  </si>
-  <si>
-    <t>Iron ores and concentrates; including roasted iron pyrites</t>
-  </si>
-  <si>
-    <t>ZMB</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Copper; refined and copper alloys, unwrought</t>
-  </si>
-  <si>
-    <t>Precious (excluding diamond) and semi-precious stone; worked, graded, not strung, mounted, set; ungraded precious (excluding diamond) and semi-precious stone, temporarily strung for convenience of tra</t>
-  </si>
-  <si>
-    <t>Sulphuric acid; oleum</t>
-  </si>
-  <si>
-    <t>ZWE</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>Ferro-alloys</t>
-  </si>
-  <si>
-    <t>Nickel ores and concentrates</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Southern Africa</t>
-  </si>
-  <si>
-    <t>BDI</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Coffee, whether or not roasted or decaffeinated; husks and skins; coffee substitutes containing coffee in any proportion</t>
-  </si>
-  <si>
-    <t>Niobium, tantalum, vanadium or zirconium ores and concentrates</t>
-  </si>
-  <si>
-    <t>Wheat or meslin flour</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Cocoa beans; whole or broken, raw or roasted</t>
-  </si>
-  <si>
-    <t>Wood sawn or chipped lengthwise, sliced, peeled, whether or not planed, sanded or finger jointed, of a thickness exceeding 6mm</t>
-  </si>
-  <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Wood in the rough, whether or not stripped of bark or sapwood, or roughly squared</t>
-  </si>
-  <si>
-    <t>Vessels; other, including warships and lifeboats, other than rowing boats</t>
-  </si>
-  <si>
-    <t>TCD</t>
-  </si>
-  <si>
-    <t>Chad*</t>
-  </si>
-  <si>
-    <t>Oil seeds and oleaginous fruits, others n.e.s. in chapter 12; whether or not broken</t>
-  </si>
-  <si>
-    <t>Lac; natural gums, resins, gum-resins and oleoresins (for example, balsams)</t>
-  </si>
-  <si>
-    <t>Cotton; not carded or combed</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>Congo Republic*</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>DR Congo</t>
-  </si>
-  <si>
-    <t>Cobalt; mattes and other intermediate products of cobalt metallurgy, cobalt and articles thereof, including waste and scrap</t>
-  </si>
-  <si>
-    <t>Copper ores and concentrates</t>
-  </si>
-  <si>
-    <t>GNQ</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea*</t>
-  </si>
-  <si>
-    <t>Acyclic alcohols and their halogenated, sulphonated, nitrated or nitrosated derivatives</t>
-  </si>
-  <si>
-    <t>Veneer sheets and sheets for plywood (spliced or not) and other wood sawn lengthwise, sliced or peeled, whether or not planed, sanded or finger-jointed, of a thickness not exceeding 6mm</t>
-  </si>
-  <si>
-    <t>GAB</t>
-  </si>
-  <si>
-    <t>Gabon*</t>
-  </si>
-  <si>
-    <t>Manganese ores and concentrates, including ferruginous manganese ores and concentrates with a manganese content of 20% or more, calculated on the dry weight</t>
-  </si>
-  <si>
-    <t>STP</t>
-  </si>
-  <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Turbo-jets, turbo-propellers and other gas turbines</t>
-  </si>
-  <si>
-    <t>Aircraft; parts of heading no. 8801 or 8802</t>
-  </si>
-  <si>
-    <t>Springs and leaves for springs, of iron or steel</t>
-  </si>
-  <si>
-    <t>Screws, bolts, nuts, coach screws, screw hooks, rivets, cotters, cotter-pins, washers (including spring washers) and similar articles, of iron or steel</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cloves; (whole fruit, cloves and stems)</t>
-  </si>
-  <si>
-    <t>Oils; essential (concretes, absolutes); concentrates thereof in fats, fixed oils, waxes or the like (obtained by enfleurage or maceration); aqueous distillates, solutions and terpenic by-products ther</t>
-  </si>
-  <si>
-    <t>Vacuum flasks and other vacuum vessels, complete with cases; parts thereof other than glass inners</t>
-  </si>
-  <si>
-    <t>Vanilla</t>
-  </si>
-  <si>
-    <t>Vessels and other floating structures; for breaking up</t>
-  </si>
-  <si>
-    <t>DJI</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Animals, n.e.s. in chapter 01; live</t>
-  </si>
-  <si>
-    <t>Sheep and goats; live</t>
-  </si>
-  <si>
-    <t>Chlorides; chloride oxides and chloride hydroxides; bromides and bromide oxides; iodides and iodide oxides</t>
-  </si>
-  <si>
-    <t>Waste and scrap of primary cells, primary batteries and electric accumulators; spent primary cells, spent primary batteries and spent electric accumulators; electrical parts of machinery or apparatus,</t>
-  </si>
-  <si>
-    <t>ERI</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Flowers; cut flowers and flower buds of a kind suitable for bouquets or for ornamental purposes, fresh, dried, dyed, bleached, impregnated or otherwise prepared</t>
-  </si>
-  <si>
-    <t>Zinc ores and concentrates</t>
-  </si>
-  <si>
-    <t>KEN</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Titanium ores and concentrates</t>
-  </si>
-  <si>
-    <t>MDG</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Nickel; unwrought</t>
-  </si>
-  <si>
-    <t>MUS</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Prepared or preserved fish; caviar and caviar substitutes prepared from fish eggs</t>
-  </si>
-  <si>
-    <t>Shirts; men's or boys' (not knitted or crocheted)</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Tin ores and concentrates</t>
-  </si>
-  <si>
-    <t>SYC</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Fish; frozen (excluding fish fillets and other fish meat of heading no. 0304)</t>
-  </si>
-  <si>
-    <t>Yachts and other vessels; for pleasure or sports, rowing boats and canoes</t>
-  </si>
-  <si>
-    <t>Cigars, cheroots, cigarillos and cigarettes; of tobacco or of tobacco substitutes</t>
-  </si>
-  <si>
-    <t>SOM</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>Bovine animals; live</t>
-  </si>
-  <si>
-    <t>SSD</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Swedes, mangolds, fodder roots, hay, lucerne (alfalfa), clover, sainfoin, forage kale, lupines, vetches and similar forage products, whether or not in the form of pellets</t>
-  </si>
-  <si>
-    <t>SDN</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>TZA</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Nuts, edible; coconuts, Brazil nuts and cashew nuts, fresh or dried, whether or not shelled or peeled</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Milk and cream; not concentrated nor containing added sugar or other sweetening matter</t>
-  </si>
-  <si>
-    <t>Fish fillets and other fish meat (whether or not minced); fresh, chilled or frozen</t>
-  </si>
-  <si>
-    <t>East Africa</t>
-  </si>
-  <si>
-    <t>DZA</t>
-  </si>
-  <si>
-    <t>Algeria*</t>
-  </si>
-  <si>
-    <t>Fertilizers; mineral or chemical, nitrogenous</t>
-  </si>
-  <si>
-    <t>Ammonia; anhydrous or in aqueous solution</t>
-  </si>
-  <si>
-    <t>EGY</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>LBY</t>
-  </si>
-  <si>
-    <t>Libya*</t>
-  </si>
-  <si>
-    <t>Ferrous waste and scrap; remelting scrap ingots of iron or steel</t>
-  </si>
-  <si>
-    <t>MRT</t>
-  </si>
-  <si>
-    <t>Mauritania*</t>
-  </si>
-  <si>
-    <t>Molluscs, whether in shell or not, live, fresh, chilled, frozen, dried, salted in brine; aquatic invertebrates (not crustaceans and molluscs) live, fresh, chilled, frozen, dried, salted or in brine</t>
-  </si>
-  <si>
-    <t>Crustaceans, molluscs and other aquatic invertebrates, prepared or preserved</t>
-  </si>
-  <si>
-    <t>MAR</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Fertilizers; mineral or chemical, containing 2 or 3 of the elements nitrogen, phosphorus, potassium; other fertilisers; goods of chapter 31 in tablets or packages of gross weight not exceeding 10kg</t>
-  </si>
-  <si>
-    <t>Diphosphorus pentoxide; phosphoric acid and polyphosphoric acids</t>
-  </si>
-  <si>
-    <t>TUN</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Olive oil and its fractions; whether or not refined, but not chemically modified</t>
-  </si>
-  <si>
-    <t>North Africa</t>
-  </si>
-  <si>
-    <t>BEN</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>BFA</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Zinc; unwrought</t>
-  </si>
-  <si>
-    <t>CPV</t>
-  </si>
-  <si>
-    <t>Cabo Verde</t>
-  </si>
-  <si>
-    <t>Footwear; parts of footwear; removable in-soles, heel cushions and similar articles; gaiters, leggings and similar articles, and parts thereof</t>
-  </si>
-  <si>
-    <t>CIV</t>
-  </si>
-  <si>
-    <t>Côte d’Ivoire</t>
-  </si>
-  <si>
-    <t>Natural rubber, balata, gutta-percha, guayule, chicle and similar gums; in primary forms or in plates, sheets or strip</t>
-  </si>
-  <si>
-    <t>GMB</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Fats and oils and their fractions of fish or marine mammals; whether or not refined, but not chemically modified</t>
-  </si>
-  <si>
-    <t>GHA</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Cocoa; paste; whether or not defatted</t>
-  </si>
-  <si>
-    <t>GIN</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Aluminium ores and concentrates</t>
-  </si>
-  <si>
-    <t>Aluminium oxide (including artificial corundum); aluminium hydroxide</t>
-  </si>
-  <si>
-    <t>GNB</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Light-vessels, fire-floats, dredgers, floating cranes, other vessels; the navigability of which is subsidiary to main function; floating docks, floating, submersible drilling, production platforms</t>
-  </si>
-  <si>
-    <t>MLI</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Oil-cake and other solid residues; whether or not ground or in the form of pellets, resulting from the extraction of vegetable fats or oils other than those of heading no. 2304 or 2305</t>
-  </si>
-  <si>
-    <t>NER</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>NGA</t>
-  </si>
-  <si>
-    <t>Nigeria*</t>
-  </si>
-  <si>
-    <t>Tubing; flexible, with or without fittings, of base metal</t>
-  </si>
-  <si>
-    <t>SEN</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Ground-nuts; not roasted or otherwise cooked, whether or not shelled or broken</t>
-  </si>
-  <si>
-    <t>SLE</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>TGO</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Natural calcium phosphates; natural aluminium calcium phosphates and phosphatic chalk</t>
-  </si>
-  <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Electronic integrated circuits and microassemblies</t>
-  </si>
-  <si>
-    <t>Transmission apparatus for radio-telephony, radio-telegraphy, radio-broadcasting or television, whether or not incorporating reception, sound recording or reproducing apparatus; television cameras; st</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Motor vehicles; parts and accessories, of heading no. 8701 to 8705</t>
-  </si>
-  <si>
-    <t>Vehicles; for the transport of goods</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>Automatic data processing machines and units thereof; magnetic or optical readers, machines for transcribing data onto data media in coded form and machines for processing such data n.e.s.</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>COMESA</t>
-  </si>
-  <si>
-    <t>CEN-SAD</t>
-  </si>
-  <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
-  </si>
-  <si>
-    <t>IGAD</t>
-  </si>
-  <si>
-    <t>SADC</t>
-  </si>
-  <si>
-    <t>UMA</t>
-  </si>
-  <si>
-    <t>PALOP</t>
-  </si>
-  <si>
-    <t>ASEAN</t>
-  </si>
-  <si>
-    <t>MERCOSUR</t>
-  </si>
-  <si>
-    <t>Soya beans; whether or not broken</t>
-  </si>
-  <si>
-    <t>EU27</t>
-  </si>
-  <si>
-    <t>Medicaments; (not goods of heading no. 3002, 3005 or 3006) consisting of mixed or unmixed products for therapeutic or prophylactic use, put up in measured doses or in forms or packings for retail sale</t>
-  </si>
-  <si>
-    <t>Blood, human or animal; for therapeutic, prophylactic or diagnostic uses; antisera, other blood fractions, modified immunological products, (from biotechnological processes or not); vaccines, toxins,</t>
-  </si>
-  <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
     <t>Grapes; fresh or dried</t>
   </si>
   <si>
+    <t>Dates, figs, pineapples, avocados, guavas, mangoes and mangosteens; fresh or dried</t>
+  </si>
+  <si>
     <t>Africa, Lower middle income countries</t>
   </si>
   <si>
@@ -856,7 +862,7 @@
     <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated February 19, 2021).</t>
+    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
   </si>
   <si>
     <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -2010,31 +2016,31 @@
         <v>14</v>
       </c>
       <c r="D3" s="17">
-        <v>86.744397520930093</v>
+        <v>84.719776335677693</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="19">
-        <v>5.3948679853363997</v>
+        <v>6.6786875755535</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="19">
-        <v>5.1591674967954297</v>
+        <v>6.22914550070392</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>17</v>
       </c>
       <c r="J3" s="19">
-        <v>1.13812519978797</v>
+        <v>1.2517378874910601</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>18</v>
       </c>
       <c r="L3" s="20">
-        <v>0.36273154559377002</v>
+        <v>0.17423773172748999</v>
       </c>
       <c r="M3" s="21">
         <v>1</v>
@@ -2043,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="O3" s="20">
-        <v>41.625651236509398</v>
+        <v>36.0568931630187</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2057,40 +2063,40 @@
         <v>15</v>
       </c>
       <c r="D4" s="25">
-        <v>89.710316754064806</v>
+        <v>87.454999009178593</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="27">
-        <v>1.88320610497139</v>
+        <v>1.9063134882356201</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="27">
-        <v>0.78058024840454998</v>
+        <v>1.7908859450030601</v>
       </c>
       <c r="I4" s="26" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="27">
-        <v>0.72611306619090998</v>
+        <v>0.99758126748691001</v>
       </c>
       <c r="K4" s="26" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="28">
-        <v>0.70512548415637</v>
+        <v>0.87665006252282995</v>
       </c>
       <c r="M4" s="29">
         <v>1</v>
       </c>
       <c r="N4" s="30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="28">
-        <v>37.162462858271397</v>
+        <v>31.355843828163401</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
@@ -2104,40 +2110,40 @@
         <v>27</v>
       </c>
       <c r="D5" s="25">
-        <v>39.9334975294082</v>
+        <v>27.404177494952901</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="27">
-        <v>17.666303760362499</v>
+        <v>20.5090270589317</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="27">
-        <v>11.655684116192701</v>
+        <v>10.6638956794978</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>30</v>
       </c>
       <c r="J5" s="27">
-        <v>6.6354217890067497</v>
+        <v>3.1231251738132899</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="28">
-        <v>1.7687868068760699</v>
+        <v>2.7420710056668698</v>
       </c>
       <c r="M5" s="29">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N5" s="30">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="O5" s="28">
-        <v>46.371668067554097</v>
+        <v>45.022187525339199</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="42" x14ac:dyDescent="0.35">
@@ -2151,1394 +2157,1394 @@
         <v>15</v>
       </c>
       <c r="D6" s="25">
-        <v>41.898541196978798</v>
+        <v>39.972131873141002</v>
       </c>
       <c r="E6" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="27">
-        <v>9.5985310450362693</v>
+        <v>10.807420121459099</v>
       </c>
       <c r="G6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="27">
+        <v>10.4136652033821</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="27">
-        <v>9.5729301970001099</v>
-      </c>
-      <c r="I6" s="26" t="s">
+      <c r="J6" s="27">
+        <v>3.9115010311468801</v>
+      </c>
+      <c r="K6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="27">
-        <v>4.5033348777093103</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>37</v>
-      </c>
       <c r="L6" s="28">
-        <v>4.3930053376889298</v>
+        <v>3.53431619888666</v>
       </c>
       <c r="M6" s="29">
         <v>7</v>
       </c>
       <c r="N6" s="30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" s="28">
-        <v>50.640979909808401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>40.6819537823215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="D7" s="25">
+        <v>52.787603361882901</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="27">
+        <v>10.3908283371682</v>
+      </c>
+      <c r="G7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="25">
-        <v>55.2799109263647</v>
-      </c>
-      <c r="E7" s="26" t="s">
+      <c r="H7" s="27">
+        <v>8.4842126059075191</v>
+      </c>
+      <c r="I7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="27">
-        <v>7.9855326586651696</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="27">
-        <v>7.35391295257865</v>
-      </c>
-      <c r="I7" s="26" t="s">
+      <c r="J7" s="27">
+        <v>5.3095042304153601</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="27">
-        <v>4.3617914379157101</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>43</v>
-      </c>
       <c r="L7" s="28">
-        <v>3.1697470687481202</v>
+        <v>3.7779834451379002</v>
       </c>
       <c r="M7" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O7" s="28">
-        <v>10.8445151954549</v>
+        <v>8.3852565753479702</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="C8" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="D8" s="25">
+        <v>25.350581369531401</v>
+      </c>
+      <c r="E8" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="25">
-        <v>24.161074559735798</v>
-      </c>
-      <c r="E8" s="26" t="s">
+      <c r="F8" s="27">
+        <v>18.069299597175299</v>
+      </c>
+      <c r="G8" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="27">
-        <v>17.349456723148101</v>
-      </c>
-      <c r="G8" s="26" t="s">
+      <c r="H8" s="27">
+        <v>5.85009449937015</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="27">
+        <v>5.3263878079704101</v>
+      </c>
+      <c r="K8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="27">
-        <v>6.3666326029425404</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="27">
-        <v>5.1511490472992598</v>
-      </c>
-      <c r="K8" s="26" t="s">
-        <v>48</v>
-      </c>
       <c r="L8" s="28">
-        <v>5.0900044967314297</v>
+        <v>5.25920025709648</v>
       </c>
       <c r="M8" s="29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N8" s="30">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="O8" s="28">
-        <v>36.386921133432303</v>
+        <v>31.149051739795802</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A9" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="25">
+        <v>22.020699250961599</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="27">
+        <v>15.2884229534461</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="27">
+        <v>12.0507727635291</v>
+      </c>
+      <c r="I9" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="25">
-        <v>17.1463223312082</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="27">
-        <v>15.4964261492854</v>
-      </c>
-      <c r="G9" s="26" t="s">
+      <c r="J9" s="27">
+        <v>9.0241919165104498</v>
+      </c>
+      <c r="K9" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="27">
-        <v>10.1891423089301</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="27">
-        <v>8.8497861308012808</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>53</v>
-      </c>
       <c r="L9" s="28">
-        <v>6.79350175224533</v>
+        <v>5.9085377974882904</v>
       </c>
       <c r="M9" s="29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N9" s="30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O9" s="28">
-        <v>36.428467905133999</v>
+        <v>33.453141205440602</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="C10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="25">
+        <v>12.718611186559199</v>
+      </c>
+      <c r="E10" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="25">
-        <v>15.475410086252401</v>
-      </c>
-      <c r="E10" s="26" t="s">
+      <c r="F10" s="27">
+        <v>11.5731079334707</v>
+      </c>
+      <c r="G10" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="27">
+        <v>6.2254713227245402</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="27">
-        <v>8.8404528651597598</v>
-      </c>
-      <c r="G10" s="26" t="s">
+      <c r="J10" s="27">
+        <v>5.0735433562969598</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="28">
+        <v>4.63839359219347</v>
+      </c>
+      <c r="M10" s="29">
+        <v>43</v>
+      </c>
+      <c r="N10" s="30">
+        <v>172</v>
+      </c>
+      <c r="O10" s="28">
+        <v>27.778032357828899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="27">
-        <v>7.0031166968996104</v>
-      </c>
-      <c r="I10" s="26" t="s">
+      <c r="B11" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="27">
-        <v>6.19483109537767</v>
-      </c>
-      <c r="K10" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="28">
-        <v>4.6501677672408199</v>
-      </c>
-      <c r="M10" s="29">
-        <v>49</v>
-      </c>
-      <c r="N10" s="30">
-        <v>184</v>
-      </c>
-      <c r="O10" s="28">
-        <v>27.044707078199998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="C11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="25">
+        <v>52.677975225700798</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="27">
+        <v>18.5340798819566</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="27">
+        <v>6.9163139645190297</v>
+      </c>
+      <c r="I11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="25">
-        <v>53.305531936497196</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="27">
-        <v>19.128435622841099</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="27">
-        <v>2.7616416120385501</v>
-      </c>
-      <c r="I11" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="J11" s="27">
-        <v>2.5398593562070002</v>
+        <v>1.6791106425668301</v>
       </c>
       <c r="K11" s="26" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="L11" s="28">
-        <v>1.4786822483044</v>
+        <v>1.6209546900245799</v>
       </c>
       <c r="M11" s="29">
         <v>3</v>
       </c>
       <c r="N11" s="30">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="O11" s="28">
-        <v>35.428366168647003</v>
+        <v>47.256634068233801</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="36">
+        <v>49.246295774003798</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="38">
+        <v>7.5798700847330496</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="38">
+        <v>5.8396413331437103</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="38">
+        <v>5.6367084873072599</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="39">
+        <v>5.3560428128226096</v>
+      </c>
+      <c r="M12" s="40">
+        <v>6</v>
+      </c>
+      <c r="N12" s="41">
+        <v>17</v>
+      </c>
+      <c r="O12" s="39">
+        <v>22.739579708657999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B13" s="43" t="s">
         <v>65</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="36">
-        <v>42.319680607217201</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="38">
-        <v>10.810331364881501</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="38">
-        <v>5.7243031785329501</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="38">
-        <v>5.6667845123347798</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="L12" s="39">
-        <v>5.4435687240077604</v>
-      </c>
-      <c r="M12" s="40">
-        <v>7</v>
-      </c>
-      <c r="N12" s="41">
-        <v>21</v>
-      </c>
-      <c r="O12" s="39">
-        <v>26.8898289987197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>69</v>
       </c>
       <c r="C13" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="45">
-        <v>15.9409369895659</v>
+        <v>11.313453627696401</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="47">
-        <v>10.997253180502099</v>
+        <v>10.8054018847296</v>
       </c>
       <c r="G13" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="47">
+        <v>7.4926401145010102</v>
+      </c>
+      <c r="I13" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="47">
-        <v>5.9538295040753999</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>56</v>
-      </c>
       <c r="J13" s="47">
-        <v>5.3575446824618203</v>
+        <v>7.2722171212761202</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L13" s="48">
-        <v>4.2523620469286003</v>
+        <v>4.9676992504927604</v>
       </c>
       <c r="M13" s="49">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N13" s="50">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="O13" s="48">
-        <v>30.579100132713801</v>
+        <v>30.0875666786316</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="25">
+        <v>41.308467449359803</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="27">
+        <v>20.095779214824798</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="27">
+        <v>10.6920624120842</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="27">
+        <v>2.9035305393536799</v>
+      </c>
+      <c r="K14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="25">
-        <v>48.065919792400599</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="27">
-        <v>20.662998647588999</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="27">
-        <v>7.8316272621458198</v>
-      </c>
-      <c r="I14" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="27">
-        <v>3.8600526794655501</v>
-      </c>
-      <c r="K14" s="26" t="s">
-        <v>74</v>
-      </c>
       <c r="L14" s="28">
-        <v>3.7029723553859299</v>
+        <v>2.6754559411889001</v>
       </c>
       <c r="M14" s="29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" s="30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O14" s="28">
-        <v>9.9307033295115907</v>
+        <v>8.7989881967972003</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="25">
-        <v>36.375516296422099</v>
+        <v>39.658121147948002</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" s="27">
-        <v>12.4328830950425</v>
+        <v>15.9903049680641</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H15" s="27">
-        <v>9.9683297285969701</v>
+        <v>10.8391871935215</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="J15" s="27">
-        <v>8.7096583117163799</v>
+        <v>6.3203261099021697</v>
       </c>
       <c r="K15" s="26" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="L15" s="28">
-        <v>7.7489645668774196</v>
+        <v>5.2524770418058599</v>
       </c>
       <c r="M15" s="29">
         <v>5</v>
       </c>
       <c r="N15" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" s="28">
-        <v>19.833495843299598</v>
+        <v>14.958799764790299</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D16" s="25">
-        <v>47.1267184221919</v>
+        <v>40.999303223859997</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="27">
-        <v>16.605839185355201</v>
+        <v>27.2023911330777</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H16" s="27">
-        <v>14.30589334171</v>
+        <v>11.4836439896812</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J16" s="27">
-        <v>8.3098717339941004</v>
+        <v>7.53919730209984</v>
       </c>
       <c r="K16" s="26" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L16" s="28">
-        <v>2.5296281198970201</v>
+        <v>5.2752657605201696</v>
       </c>
       <c r="M16" s="29">
         <v>3</v>
       </c>
       <c r="N16" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O16" s="28">
-        <v>15.7548982844937</v>
+        <v>13.958642229302701</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C17" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="53">
-        <v>73.803606142515704</v>
+        <v>79.080016774911499</v>
       </c>
       <c r="E17" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="55">
-        <v>21.011663849408201</v>
+        <v>14.063525257490699</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H17" s="55">
-        <v>2.9122273231531701</v>
+        <v>4.6986467492669997</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J17" s="55">
-        <v>1.7579143393797101</v>
+        <v>1.0984240691457801</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L17" s="56">
-        <v>0.11191490349064</v>
+        <v>0.36096135218832998</v>
       </c>
       <c r="M17" s="57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="58">
         <v>2</v>
       </c>
       <c r="O17" s="56">
-        <v>34.775918949544199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>27.322427893802899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C18" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="53">
-        <v>62.9294819678544</v>
+        <v>45.855225932720799</v>
       </c>
       <c r="E18" s="54" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F18" s="55">
-        <v>23.6130996776496</v>
+        <v>28.611830409463</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H18" s="55">
-        <v>2.7005335369582002</v>
+        <v>6.4839292713279404</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J18" s="55">
-        <v>1.45539365285588</v>
+        <v>3.88589536388668</v>
       </c>
       <c r="K18" s="54" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="L18" s="56">
-        <v>1.3062480052287</v>
+        <v>3.1848500715227601</v>
       </c>
       <c r="M18" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" s="58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O18" s="56">
-        <v>68.397835797202006</v>
+        <v>54.927443023845498</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D19" s="25">
-        <v>49.887015244340397</v>
+        <v>58.316018356454499</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F19" s="27">
-        <v>23.360368463136599</v>
+        <v>15.5618290591103</v>
       </c>
       <c r="G19" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H19" s="27">
-        <v>6.6604270357279001</v>
+        <v>12.4380427626319</v>
       </c>
       <c r="I19" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="27">
+        <v>3.70720833516754</v>
+      </c>
+      <c r="K19" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="27">
-        <v>5.7195632281733397</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>51</v>
-      </c>
       <c r="L19" s="28">
-        <v>3.05106367264995</v>
+        <v>2.0170347987635702</v>
       </c>
       <c r="M19" s="29">
         <v>3</v>
       </c>
       <c r="N19" s="30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O19" s="28">
-        <v>26.458946210193801</v>
+        <v>28.604587447723802</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C20" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="53">
-        <v>68.548782615981906</v>
+        <v>72.865443230999006</v>
       </c>
       <c r="E20" s="54" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="55">
-        <v>20.413921991755402</v>
+        <v>19.960631959517201</v>
       </c>
       <c r="G20" s="54" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H20" s="55">
-        <v>5.8660318506706597</v>
+        <v>3.5272631219395398</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J20" s="55">
-        <v>3.8170588780709198</v>
+        <v>2.3057594842401401</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L20" s="56">
-        <v>0.26242124336264</v>
+        <v>0.41565308932794998</v>
       </c>
       <c r="M20" s="57">
         <v>2</v>
       </c>
       <c r="N20" s="58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20" s="56">
-        <v>39.650588732997498</v>
+        <v>36.0270954016895</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C21" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="53">
-        <v>66.664881022438706</v>
+        <v>54.400044774125597</v>
       </c>
       <c r="E21" s="54" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F21" s="55">
-        <v>19.737119126469299</v>
+        <v>28.168407869991199</v>
       </c>
       <c r="G21" s="54" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H21" s="55">
-        <v>5.5392141644433002</v>
+        <v>6.5920090237770799</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J21" s="55">
-        <v>3.0503270853898101</v>
+        <v>3.9678007245845199</v>
       </c>
       <c r="K21" s="54" t="s">
         <v>17</v>
       </c>
       <c r="L21" s="56">
-        <v>0.91503174960414002</v>
+        <v>1.3979292629339399</v>
       </c>
       <c r="M21" s="57">
         <v>2</v>
       </c>
       <c r="N21" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O21" s="56">
-        <v>40.452923680697197</v>
+        <v>34.603495429430403</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="25">
+        <v>36.765576458170102</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="27">
+        <v>16.186206957263199</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="27">
+        <v>14.7557647074605</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" s="27">
+        <v>13.0172915023934</v>
+      </c>
+      <c r="K22" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="25">
-        <v>41.846619884165797</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="27">
-        <v>24.290328169165299</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="27">
-        <v>8.6649553045528496</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J22" s="27">
-        <v>2.19762697268298</v>
-      </c>
-      <c r="K22" s="26" t="s">
-        <v>106</v>
-      </c>
       <c r="L22" s="28">
-        <v>2.0881603999062799</v>
+        <v>2.3378719911532402</v>
       </c>
       <c r="M22" s="29">
         <v>4</v>
       </c>
       <c r="N22" s="30">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O22" s="28">
-        <v>22.328435416286901</v>
+        <v>10.335632446845301</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C23" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="45">
+        <v>33.836433038717097</v>
+      </c>
+      <c r="E23" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="45">
-        <v>47.472359691473102</v>
-      </c>
-      <c r="E23" s="46" t="s">
-        <v>61</v>
-      </c>
       <c r="F23" s="47">
-        <v>18.087684481666301</v>
+        <v>27.742722413336001</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H23" s="47">
-        <v>5.3452095591168796</v>
+        <v>7.5047045350427304</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="J23" s="47">
-        <v>3.70194355311394</v>
+        <v>6.0957438451965098</v>
       </c>
       <c r="K23" s="46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L23" s="48">
-        <v>3.4789456892161001</v>
+        <v>3.1154564248637699</v>
       </c>
       <c r="M23" s="49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N23" s="50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O23" s="48">
-        <v>29.8406723185327</v>
+        <v>26.166827740494899</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A24" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="25">
+        <v>32.082334076648699</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="27">
+        <v>21.789046450964701</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="27">
+        <v>15.5568148254512</v>
+      </c>
+      <c r="I24" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="J24" s="27">
+        <v>13.760727899767099</v>
+      </c>
+      <c r="K24" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="25">
-        <v>29.938958471306101</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="27">
-        <v>24.561875133988401</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="27">
-        <v>13.613619064938501</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="J24" s="27">
-        <v>10.6187105439887</v>
-      </c>
-      <c r="K24" s="26" t="s">
-        <v>114</v>
-      </c>
       <c r="L24" s="28">
-        <v>9.9516474393709995</v>
+        <v>7.25026081279319</v>
       </c>
       <c r="M24" s="29">
         <v>4</v>
       </c>
       <c r="N24" s="30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" s="28">
-        <v>11.9726333997826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>7.4003682272070499</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D25" s="25">
-        <v>25.1116634196691</v>
+        <v>28.778405246807001</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F25" s="27">
-        <v>21.567563528990899</v>
+        <v>28.212978316126399</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H25" s="27">
-        <v>14.1797321093847</v>
+        <v>7.2689484419618999</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J25" s="27">
-        <v>10.2540034010912</v>
+        <v>6.8609571029591701</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L25" s="28">
-        <v>5.6915779377054498</v>
+        <v>5.9123663978410299</v>
       </c>
       <c r="M25" s="29">
         <v>5</v>
       </c>
       <c r="N25" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O25" s="28">
-        <v>153.89308648135801</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+        <v>108.347128599491</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="25">
+        <v>44.3441393140142</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="27">
+        <v>28.7974836013531</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="27">
+        <v>25.739840929915399</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="27">
+        <v>0.18932952218485999</v>
+      </c>
+      <c r="K26" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="28">
+        <v>0.18847894702185</v>
+      </c>
+      <c r="M26" s="29">
+        <v>3</v>
+      </c>
+      <c r="N26" s="30">
+        <v>3</v>
+      </c>
+      <c r="O26" s="28">
+        <v>28.3725767707963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="C27" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="25">
+        <v>24.6290980288254</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="27">
+        <v>11.0057380668833</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="27">
+        <v>9.3913566520789509</v>
+      </c>
+      <c r="I27" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J26" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="K26" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="M26" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="N26" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="O26" s="28">
-        <v>31.532871378903199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A27" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="25">
-        <v>26.973834489762599</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="27">
-        <v>11.183053297341001</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27" s="27">
-        <v>8.2039010323432393</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>126</v>
-      </c>
       <c r="J27" s="27">
-        <v>7.6512657615481299</v>
+        <v>7.4706001636026702</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="L27" s="28">
-        <v>6.3888331611920304</v>
+        <v>5.5654405990317697</v>
       </c>
       <c r="M27" s="29">
         <v>11</v>
       </c>
       <c r="N27" s="30">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O27" s="28">
-        <v>8.2233027427614207</v>
+        <v>7.9432879251149497</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A28" s="31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="25">
-        <v>18.073064987704299</v>
+        <v>18.366168111324701</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="27">
-        <v>9.8084018463183593</v>
+        <v>9.1102912181392508</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="27">
-        <v>6.5032332792185201</v>
+        <v>4.7294388241946201</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="J28" s="27">
-        <v>3.5649704101760502</v>
+        <v>3.9984552998045499</v>
       </c>
       <c r="K28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L28" s="28">
+        <v>3.5163818617886902</v>
+      </c>
+      <c r="M28" s="29">
+        <v>42</v>
+      </c>
+      <c r="N28" s="30">
+        <v>115</v>
+      </c>
+      <c r="O28" s="28">
+        <v>9.6526740474695494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="25">
+        <v>21.896525963617002</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="27">
+        <v>7.6759166066947602</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="27">
+        <v>6.6279930082829104</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="27">
+        <v>5.0819929473654204</v>
+      </c>
+      <c r="K29" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="L28" s="28">
-        <v>2.2886150464548898</v>
-      </c>
-      <c r="M28" s="29">
-        <v>49</v>
-      </c>
-      <c r="N28" s="30">
-        <v>133</v>
-      </c>
-      <c r="O28" s="28">
-        <v>11.4410200694722</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D29" s="25">
-        <v>20.1611892284288</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="27">
-        <v>14.752370458048</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H29" s="27">
-        <v>6.3220757653279698</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="27">
-        <v>4.4936867990974703</v>
-      </c>
-      <c r="K29" s="26" t="s">
-        <v>62</v>
-      </c>
       <c r="L29" s="28">
-        <v>4.1778312018772299</v>
+        <v>4.0818298157323696</v>
       </c>
       <c r="M29" s="29">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N29" s="30">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O29" s="28">
-        <v>28.666141120409002</v>
+        <v>19.687925704304501</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A30" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="25">
+        <v>11.901246496265999</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="27">
+        <v>9.4564473091332903</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" s="27">
+        <v>4.5999816059628298</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="J30" s="27">
+        <v>4.2715392790015301</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L30" s="28">
+        <v>4.0437731569316204</v>
+      </c>
+      <c r="M30" s="29">
+        <v>39</v>
+      </c>
+      <c r="N30" s="30">
+        <v>108</v>
+      </c>
+      <c r="O30" s="28">
+        <v>28.281043379663199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="25">
-        <v>10.6209537580307</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="27">
-        <v>7.7854899891429703</v>
-      </c>
-      <c r="G30" s="26" t="s">
+      <c r="C31" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="25">
+        <v>71.301282734830806</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="27">
+        <v>7.3507697582614702</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="27">
+        <v>6.0809422037005003</v>
+      </c>
+      <c r="I31" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="H30" s="27">
-        <v>5.4418940026658396</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="27">
-        <v>4.8831201303168497</v>
-      </c>
-      <c r="K30" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="28">
-        <v>4.3286738675415402</v>
-      </c>
-      <c r="M30" s="29">
-        <v>35</v>
-      </c>
-      <c r="N30" s="30">
-        <v>102</v>
-      </c>
-      <c r="O30" s="28">
-        <v>36.826548666962097</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="31" t="s">
+      <c r="J31" s="27">
+        <v>5.1551982927152196</v>
+      </c>
+      <c r="K31" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="25">
-        <v>32.300044440234998</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="27">
-        <v>10.271239192886799</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="27">
-        <v>5.6018728192483502</v>
-      </c>
-      <c r="I31" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J31" s="27">
-        <v>5.5126501642011396</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>140</v>
-      </c>
       <c r="L31" s="28">
-        <v>5.3502279814071798</v>
+        <v>2.2692144066606001</v>
       </c>
       <c r="M31" s="29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N31" s="30">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="O31" s="28">
-        <v>21.7710160422555</v>
+        <v>18.673437233136202</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A32" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="25">
+        <v>38.009715898514898</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" s="27">
+        <v>20.303694789089</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="H32" s="27">
+        <v>19.6564039053908</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="27">
+        <v>9.3101604310054</v>
+      </c>
+      <c r="K32" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="25">
-        <v>25.1143895304144</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F32" s="27">
-        <v>23.602465214055901</v>
-      </c>
-      <c r="G32" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="27">
-        <v>22.406097367657999</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="J32" s="27">
-        <v>17.253399641074299</v>
-      </c>
-      <c r="K32" s="26" t="s">
-        <v>145</v>
-      </c>
       <c r="L32" s="28">
-        <v>1.58344119768729</v>
+        <v>2.0944298340958598</v>
       </c>
       <c r="M32" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="30">
         <v>6</v>
       </c>
       <c r="O32" s="28">
-        <v>101.824476661034</v>
+        <v>85.216242015990701</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33" s="25">
-        <v>41.5003191809867</v>
+        <v>40.099019930479002</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F33" s="27">
-        <v>19.7701371763944</v>
+        <v>12.650364328037</v>
       </c>
       <c r="G33" s="26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H33" s="27">
-        <v>9.8093786178960194</v>
+        <v>9.3346103728688501</v>
       </c>
       <c r="I33" s="26" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="J33" s="27">
-        <v>8.5282375977073404</v>
+        <v>7.6388324337765603</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="L33" s="28">
-        <v>3.74647492547314</v>
+        <v>7.6327842558443901</v>
       </c>
       <c r="M33" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" s="30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O33" s="28">
-        <v>22.130395238633401</v>
+        <v>13.930491176745999</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C34" s="24" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="25">
-        <v>94.621441510108795</v>
+        <v>82.4647827072246</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F34" s="27">
-        <v>2.7840036109276198</v>
+        <v>13.0231766124018</v>
       </c>
       <c r="G34" s="26" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H34" s="27">
-        <v>1.68336540083925</v>
+        <v>2.5846209942600198</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="J34" s="27">
-        <v>0.39351558042696999</v>
+        <v>0.50331310458235001</v>
       </c>
       <c r="K34" s="26" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="L34" s="28">
-        <v>0.17592022915604</v>
+        <v>0.43224828169179003</v>
       </c>
       <c r="M34" s="29">
         <v>1</v>
       </c>
       <c r="N34" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="28">
-        <v>68.471902002970097</v>
+        <v>49.347550908849001</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="25">
-        <v>30.014077253003901</v>
+        <v>45.681241188803497</v>
       </c>
       <c r="E35" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="27">
+        <v>18.4923629966524</v>
+      </c>
+      <c r="G35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="27">
-        <v>19.787049789487401</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>85</v>
-      </c>
       <c r="H35" s="27">
-        <v>18.567549808276201</v>
+        <v>7.86605651701396</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="J35" s="27">
-        <v>11.206597959654999</v>
+        <v>7.5569828788371902</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="L35" s="28">
-        <v>3.3441925500460399</v>
+        <v>3.5360234555807901</v>
       </c>
       <c r="M35" s="29">
         <v>4</v>
@@ -3547,327 +3553,327 @@
         <v>8</v>
       </c>
       <c r="O35" s="28">
-        <v>15.2241710434641</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>14.791953038597899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="25">
+        <v>39.980579519642099</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="F36" s="27">
+        <v>6.38043159548935</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="27">
+        <v>5.8611325407561496</v>
+      </c>
+      <c r="I36" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C36" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="25">
-        <v>32.440340500148601</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="27">
-        <v>6.4773603458115101</v>
-      </c>
-      <c r="G36" s="26" t="s">
+      <c r="J36" s="27">
+        <v>5.8043038008171104</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="28">
+        <v>3.5117588505788602</v>
+      </c>
+      <c r="M36" s="29">
+        <v>11</v>
+      </c>
+      <c r="N36" s="30">
+        <v>36</v>
+      </c>
+      <c r="O36" s="28">
+        <v>14.127373281930501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="H36" s="27">
-        <v>5.2784094553461101</v>
-      </c>
-      <c r="I36" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="J36" s="27">
-        <v>4.1933886257005</v>
-      </c>
-      <c r="K36" s="26" t="s">
+      <c r="B37" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="25">
+        <v>59.012722954150902</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="27">
+        <v>9.1359340914728602</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="27">
+        <v>1.72036555646251</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="L36" s="28">
-        <v>3.68341214907027</v>
-      </c>
-      <c r="M36" s="29">
-        <v>16</v>
-      </c>
-      <c r="N36" s="30">
-        <v>46</v>
-      </c>
-      <c r="O36" s="28">
-        <v>14.8301588702089</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="25">
-        <v>56.899574569229799</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="27">
-        <v>12.728204649555</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="H37" s="27">
-        <v>3.0739778674032698</v>
-      </c>
-      <c r="I37" s="26" t="s">
-        <v>160</v>
-      </c>
       <c r="J37" s="27">
-        <v>3.0029360752523999</v>
+        <v>1.2221636270260701</v>
       </c>
       <c r="K37" s="26" t="s">
         <v>40</v>
       </c>
       <c r="L37" s="28">
-        <v>2.1502706326405501</v>
+        <v>1.2210342554376801</v>
       </c>
       <c r="M37" s="29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N37" s="30">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="O37" s="28">
-        <v>16.587433625122301</v>
+        <v>15.164586371861899</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="45">
+        <v>27.5171746526667</v>
+      </c>
+      <c r="E38" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="45">
-        <v>17.714439003556699</v>
-      </c>
-      <c r="E38" s="46" t="s">
+      <c r="F38" s="47">
+        <v>5.3523910359875897</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" s="47">
+        <v>4.01311306765224</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="47">
+        <v>3.9623857485348402</v>
+      </c>
+      <c r="K38" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="47">
-        <v>7.7759144328440399</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="47">
-        <v>5.4314614618009003</v>
-      </c>
-      <c r="I38" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J38" s="47">
-        <v>4.3649551153639896</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>41</v>
-      </c>
       <c r="L38" s="48">
-        <v>4.0611300611201004</v>
+        <v>2.96614618893866</v>
       </c>
       <c r="M38" s="49">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N38" s="50">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O38" s="48">
-        <v>15.7686022372661</v>
+        <v>13.520067373822799</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B39" s="59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C39" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="53">
+        <v>37.026065372660298</v>
+      </c>
+      <c r="E39" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="53">
-        <v>41.828819775554003</v>
-      </c>
-      <c r="E39" s="54" t="s">
-        <v>16</v>
-      </c>
       <c r="F39" s="55">
-        <v>32.634193835081902</v>
+        <v>33.284175071008697</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="55">
-        <v>18.917704104208699</v>
+        <v>19.011861075840301</v>
       </c>
       <c r="I39" s="54" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J39" s="55">
-        <v>2.2529637611876501</v>
+        <v>4.2942251745149296</v>
       </c>
       <c r="K39" s="54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L39" s="56">
-        <v>0.95319675962845996</v>
+        <v>1.09173539957928</v>
       </c>
       <c r="M39" s="57">
         <v>3</v>
       </c>
       <c r="N39" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O39" s="56">
-        <v>22.5353989185515</v>
+        <v>16.8805128329839</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A40" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="25">
+        <v>10.0780794650299</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="27">
+        <v>9.6849526403561299</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="27">
+        <v>8.0641049526853497</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" s="27">
+        <v>3.4648660042555499</v>
+      </c>
+      <c r="K40" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="L40" s="28">
+        <v>2.7605875774411199</v>
+      </c>
+      <c r="M40" s="29">
+        <v>67</v>
+      </c>
+      <c r="N40" s="30">
+        <v>149</v>
+      </c>
+      <c r="O40" s="28">
+        <v>13.093940149445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B41" s="59" t="s">
         <v>167</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="25">
-        <v>11.4177672387193</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="27">
-        <v>9.1041066572169704</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="27">
-        <v>5.6350562324062397</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J40" s="27">
-        <v>4.8217620534335204</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="L40" s="28">
-        <v>3.8075029033963199</v>
-      </c>
-      <c r="M40" s="29">
-        <v>64</v>
-      </c>
-      <c r="N40" s="30">
-        <v>148</v>
-      </c>
-      <c r="O40" s="28">
-        <v>17.503311762900601</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="59" t="s">
-        <v>169</v>
       </c>
       <c r="C41" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="53">
-        <v>85.752314851773605</v>
+        <v>65.059501535394801</v>
       </c>
       <c r="E41" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="55">
+        <v>19.650850591475599</v>
+      </c>
+      <c r="G41" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="55">
-        <v>4.9503663812677203</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>22</v>
-      </c>
       <c r="H41" s="55">
-        <v>4.5308730405438897</v>
+        <v>8.4964720648732701</v>
       </c>
       <c r="I41" s="54" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="J41" s="55">
-        <v>3.2416610440340299</v>
+        <v>1.2306317118782499</v>
       </c>
       <c r="K41" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" s="56">
+        <v>1.1726291248715</v>
+      </c>
+      <c r="M41" s="57">
+        <v>2</v>
+      </c>
+      <c r="N41" s="58">
+        <v>3</v>
+      </c>
+      <c r="O41" s="56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="L41" s="56">
-        <v>0.33681400331761002</v>
-      </c>
-      <c r="M41" s="57">
-        <v>1</v>
-      </c>
-      <c r="N41" s="58">
-        <v>2</v>
-      </c>
-      <c r="O41" s="56" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="42" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="B42" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="C42" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="52" t="s">
-        <v>58</v>
-      </c>
       <c r="D42" s="53">
-        <v>38.397223219975601</v>
+        <v>35.972114998710097</v>
       </c>
       <c r="E42" s="54" t="s">
-        <v>143</v>
+        <v>21</v>
       </c>
       <c r="F42" s="55">
-        <v>15.671648893932099</v>
+        <v>22.2473420801429</v>
       </c>
       <c r="G42" s="54" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H42" s="55">
-        <v>13.647160994494801</v>
+        <v>11.103874609342499</v>
       </c>
       <c r="I42" s="54" t="s">
         <v>173</v>
       </c>
       <c r="J42" s="55">
-        <v>8.5852504471434408</v>
+        <v>7.9409123815568101</v>
       </c>
       <c r="K42" s="54" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="L42" s="56">
-        <v>8.3657876493788699</v>
+        <v>5.6115177090127997</v>
       </c>
       <c r="M42" s="57">
         <v>4</v>
@@ -3876,54 +3882,54 @@
         <v>7</v>
       </c>
       <c r="O42" s="56">
-        <v>33.361900851377001</v>
+        <v>35.2921373334867</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="C43" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="25">
+        <v>11.7675394148111</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="25">
-        <v>11.8209983346587</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>21</v>
-      </c>
       <c r="F43" s="27">
-        <v>11.411166383005</v>
+        <v>10.6028640713765</v>
       </c>
       <c r="G43" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="27">
+        <v>10.5972800876644</v>
+      </c>
+      <c r="I43" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="27">
-        <v>8.2238512652662799</v>
-      </c>
-      <c r="I43" s="26" t="s">
+      <c r="J43" s="27">
+        <v>3.8679278705055502</v>
+      </c>
+      <c r="K43" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="J43" s="27">
-        <v>4.5115487483847598</v>
-      </c>
-      <c r="K43" s="26" t="s">
-        <v>31</v>
-      </c>
       <c r="L43" s="28">
-        <v>4.2333900336830501</v>
+        <v>3.6105140760891499</v>
       </c>
       <c r="M43" s="29">
         <v>33</v>
       </c>
       <c r="N43" s="30">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O43" s="28">
-        <v>36.744977038634602</v>
+        <v>32.594277668810498</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
@@ -3934,410 +3940,410 @@
         <v>180</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D44" s="25">
-        <v>11.9723434250302</v>
+        <v>13.3943014628407</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="F44" s="27">
-        <v>5.2789715250522997</v>
+        <v>6.2720534631430098</v>
       </c>
       <c r="G44" s="26" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H44" s="27">
-        <v>3.9200518277432801</v>
+        <v>5.9213649437676503</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="J44" s="27">
-        <v>3.0967461545229402</v>
+        <v>3.92403687897774</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L44" s="28">
-        <v>3.0168526039636099</v>
+        <v>2.9244741289837601</v>
       </c>
       <c r="M44" s="29">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="N44" s="30">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="O44" s="28">
-        <v>49.177365901980203</v>
+        <v>37.788945084379698</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="45">
-        <v>27.490293630773198</v>
+        <v>13.2733563724685</v>
       </c>
       <c r="E45" s="46" t="s">
         <v>16</v>
       </c>
       <c r="F45" s="47">
-        <v>9.2674752457649792</v>
+        <v>7.5036770239240003</v>
       </c>
       <c r="G45" s="46" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="47">
-        <v>7.1022737600767201</v>
+        <v>6.69453494198022</v>
       </c>
       <c r="I45" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="47">
+        <v>5.45483035826655</v>
+      </c>
+      <c r="K45" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="J45" s="47">
-        <v>4.4110502042968802</v>
-      </c>
-      <c r="K45" s="46" t="s">
-        <v>22</v>
-      </c>
       <c r="L45" s="48">
-        <v>2.6244611315819699</v>
+        <v>5.2365617686716304</v>
       </c>
       <c r="M45" s="49">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="N45" s="50">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="O45" s="48">
-        <v>23.3089978099575</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>18.050556097956299</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A46" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D46" s="25">
-        <v>29.226864325884701</v>
+        <v>37.838724914183601</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F46" s="27">
-        <v>24.0291992720061</v>
+        <v>19.428545219275801</v>
       </c>
       <c r="G46" s="26" t="s">
-        <v>22</v>
+        <v>154</v>
       </c>
       <c r="H46" s="27">
-        <v>12.284162693815601</v>
+        <v>9.6200104050228408</v>
       </c>
       <c r="I46" s="26" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="J46" s="27">
-        <v>9.3154801980611204</v>
+        <v>5.0643691080985098</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="L46" s="28">
-        <v>3.1510024276187001</v>
+        <v>4.2784470196503701</v>
       </c>
       <c r="M46" s="29">
         <v>5</v>
       </c>
       <c r="N46" s="30">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O46" s="28">
-        <v>24.8772535879984</v>
+        <v>22.351361356623102</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D47" s="25">
-        <v>77.534056100641294</v>
+        <v>87.772470171978796</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F47" s="27">
-        <v>6.6178820580493802</v>
+        <v>3.3623122967490802</v>
       </c>
       <c r="G47" s="26" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H47" s="27">
-        <v>2.9074581441345799</v>
+        <v>2.4393904814514298</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="J47" s="27">
-        <v>2.5921501340623099</v>
+        <v>1.8075596041806801</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="L47" s="28">
-        <v>2.2703628417417798</v>
+        <v>1.11211322267491</v>
       </c>
       <c r="M47" s="29">
         <v>1</v>
       </c>
       <c r="N47" s="30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O47" s="28">
-        <v>27.938996216928501</v>
+        <v>29.450252108031599</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A48" s="31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" s="25">
-        <v>42.306426413950398</v>
+        <v>47.764582486053698</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F48" s="27">
-        <v>23.881974649174602</v>
+        <v>21.148720819789801</v>
       </c>
       <c r="G48" s="26" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H48" s="27">
-        <v>4.4127764000323397</v>
+        <v>4.5254070327721596</v>
       </c>
       <c r="I48" s="26" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J48" s="27">
-        <v>3.5077899370507502</v>
+        <v>2.9019285488488298</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>35</v>
+        <v>194</v>
       </c>
       <c r="L48" s="28">
-        <v>3.1589907979142802</v>
+        <v>1.6319519243215199</v>
       </c>
       <c r="M48" s="29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" s="30">
         <v>15</v>
       </c>
       <c r="O48" s="28">
-        <v>50.649292007173898</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>24.844803680796801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A49" s="31" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D49" s="25">
-        <v>27.880244568599601</v>
+        <v>33.439445503729402</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="F49" s="27">
-        <v>7.9140016201005201</v>
+        <v>12.086451059319799</v>
       </c>
       <c r="G49" s="26" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H49" s="27">
-        <v>7.8301504375244999</v>
+        <v>9.8902896475250994</v>
       </c>
       <c r="I49" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J49" s="27">
-        <v>7.4111719895470198</v>
+        <v>9.3656331824219698</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="L49" s="28">
-        <v>6.8904487930756799</v>
+        <v>6.7524735775874198</v>
       </c>
       <c r="M49" s="29">
+        <v>6</v>
+      </c>
+      <c r="N49" s="30">
+        <v>15</v>
+      </c>
+      <c r="O49" s="28">
+        <v>21.536964229836901</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+      <c r="A50" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="25">
+        <v>60.130186254170802</v>
+      </c>
+      <c r="E50" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="27">
+        <v>8.0069353616851195</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" s="27">
+        <v>5.9680317311127604</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J50" s="27">
+        <v>4.72423002541057</v>
+      </c>
+      <c r="K50" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L50" s="28">
+        <v>3.57459805495724</v>
+      </c>
+      <c r="M50" s="29">
+        <v>4</v>
+      </c>
+      <c r="N50" s="30">
         <v>9</v>
       </c>
-      <c r="N49" s="30">
-        <v>25</v>
-      </c>
-      <c r="O49" s="28">
-        <v>23.557970587010601</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="25">
-        <v>26.208285493222501</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="27">
-        <v>17.974360288030699</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H50" s="27">
-        <v>8.6727756733377692</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="27">
-        <v>6.4538950144921499</v>
-      </c>
-      <c r="K50" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="L50" s="28">
-        <v>5.8098846408217897</v>
-      </c>
-      <c r="M50" s="29">
-        <v>8</v>
-      </c>
-      <c r="N50" s="30">
-        <v>20</v>
-      </c>
       <c r="O50" s="28">
-        <v>20.417786501010699</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="42" x14ac:dyDescent="0.35">
+        <v>8.3246703396823705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="25">
-        <v>50.0304910267701</v>
+        <v>45.111340038856397</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>14</v>
       </c>
       <c r="F51" s="27">
-        <v>21.241580069985801</v>
+        <v>20.6993731280566</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H51" s="27">
-        <v>7.2984463200247696</v>
+        <v>9.7565615693765597</v>
       </c>
       <c r="I51" s="26" t="s">
-        <v>100</v>
+        <v>198</v>
       </c>
       <c r="J51" s="27">
-        <v>2.3181236921753601</v>
+        <v>3.1516599802633798</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="L51" s="28">
-        <v>2.31758271961312</v>
+        <v>2.6883821984164298</v>
       </c>
       <c r="M51" s="29">
         <v>3</v>
       </c>
       <c r="N51" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O51" s="28">
-        <v>37.442924059639502</v>
+        <v>32.245966290252397</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="25">
-        <v>46.559274134945099</v>
+        <v>70.522331931492005</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F52" s="27">
-        <v>46.552911846151403</v>
+        <v>25.990134357824299</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H52" s="27">
-        <v>1.4969975659513499</v>
+        <v>0.76524815432055004</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>143</v>
+        <v>14</v>
       </c>
       <c r="J52" s="27">
-        <v>0.77390768100340002</v>
+        <v>0.42810437216711</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="L52" s="28">
-        <v>0.72650599141515004</v>
+        <v>0.38243932368493</v>
       </c>
       <c r="M52" s="29">
         <v>2</v>
@@ -4346,92 +4352,92 @@
         <v>2</v>
       </c>
       <c r="O52" s="28">
-        <v>29.9004210525042</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
+        <v>58.821909574594102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D53" s="25">
-        <v>51.240164706859801</v>
+        <v>90.081225326450905</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="F53" s="27">
-        <v>28.558291307886801</v>
+        <v>5.8254092287574197</v>
       </c>
       <c r="G53" s="26" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H53" s="27">
-        <v>14.0190618531451</v>
+        <v>1.0604809253019301</v>
       </c>
       <c r="I53" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J53" s="27">
-        <v>3.05897530038389</v>
+        <v>0.78880913373827</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>202</v>
+        <v>21</v>
       </c>
       <c r="L53" s="28">
-        <v>1.3109765121383901</v>
+        <v>0.59250857501412002</v>
       </c>
       <c r="M53" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N53" s="30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O53" s="28">
-        <v>20.265588401188101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>15.781576802186301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="D54" s="25">
-        <v>39.526923252266002</v>
+        <v>34.413128578073398</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F54" s="27">
-        <v>20.815919280689599</v>
+        <v>25.2653874540853</v>
       </c>
       <c r="G54" s="26" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="H54" s="27">
-        <v>14.919378395420599</v>
+        <v>16.350804803416899</v>
       </c>
       <c r="I54" s="26" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="J54" s="27">
-        <v>9.3453293278499601</v>
+        <v>11.496135646053</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="L54" s="28">
-        <v>7.4730029700690501</v>
+        <v>3.5060768812938701</v>
       </c>
       <c r="M54" s="29">
         <v>3</v>
@@ -4440,45 +4446,45 @@
         <v>5</v>
       </c>
       <c r="O54" s="28">
-        <v>26.981107427850802</v>
+        <v>26.642329589375201</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="25">
-        <v>92.360554899237101</v>
+        <v>93.7625817744686</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F55" s="27">
-        <v>2.0032879115634801</v>
+        <v>1.35174730115839</v>
       </c>
       <c r="G55" s="26" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H55" s="27">
-        <v>1.2415477681578899</v>
+        <v>1.0686740462048601</v>
       </c>
       <c r="I55" s="26" t="s">
         <v>81</v>
       </c>
       <c r="J55" s="27">
-        <v>1.0791234539143999</v>
+        <v>0.91219722700115002</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="L55" s="28">
-        <v>0.52294865864310003</v>
+        <v>0.72268964803395996</v>
       </c>
       <c r="M55" s="29">
         <v>1</v>
@@ -4487,45 +4493,45 @@
         <v>1</v>
       </c>
       <c r="O55" s="28">
-        <v>25.705225158491601</v>
+        <v>29.617510448254599</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="25">
-        <v>53.534985168374597</v>
+        <v>67.5347940832212</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F56" s="27">
-        <v>25.300245193502001</v>
+        <v>8.5684146431473494</v>
       </c>
       <c r="G56" s="26" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="H56" s="27">
-        <v>6.9803152945762204</v>
+        <v>7.8431385836169998</v>
       </c>
       <c r="I56" s="26" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="J56" s="27">
-        <v>4.9992479580979801</v>
+        <v>6.2051397053601098</v>
       </c>
       <c r="K56" s="26" t="s">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="L56" s="28">
-        <v>2.2621969286098298</v>
+        <v>2.9396433773642698</v>
       </c>
       <c r="M56" s="29">
         <v>2</v>
@@ -4534,186 +4540,186 @@
         <v>4</v>
       </c>
       <c r="O56" s="28">
-        <v>10.7661913807493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+        <v>16.558684797394498</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C57" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="53">
-        <v>72.178169527616006</v>
+        <v>70.671883988915894</v>
       </c>
       <c r="E57" s="54" t="s">
         <v>16</v>
       </c>
       <c r="F57" s="55">
-        <v>12.1118447189061</v>
+        <v>13.824213522527</v>
       </c>
       <c r="G57" s="54" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H57" s="55">
-        <v>3.5379174563843199</v>
+        <v>3.0419051712874099</v>
       </c>
       <c r="I57" s="54" t="s">
-        <v>216</v>
+        <v>84</v>
       </c>
       <c r="J57" s="55">
-        <v>3.28714101400289</v>
+        <v>1.82825473636325</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="L57" s="56">
-        <v>1.10968968405603</v>
+        <v>1.43346111801431</v>
       </c>
       <c r="M57" s="57">
         <v>2</v>
       </c>
       <c r="N57" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O57" s="56">
-        <v>15.604465910185001</v>
+        <v>9.3002005332566693</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="25">
-        <v>15.5317155353034</v>
+        <v>18.547461650946399</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>17</v>
       </c>
       <c r="F58" s="27">
-        <v>14.3924440963529</v>
+        <v>11.700221208444701</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="H58" s="27">
-        <v>7.9331026226453103</v>
+        <v>7.6656180798673397</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="J58" s="27">
-        <v>7.3738596180721601</v>
+        <v>6.73536088986602</v>
       </c>
       <c r="K58" s="26" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="L58" s="28">
-        <v>4.4080849914063496</v>
+        <v>4.9397791393079</v>
       </c>
       <c r="M58" s="29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N58" s="30">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O58" s="28">
-        <v>25.043697347141102</v>
+        <v>20.662918406188599</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>130</v>
       </c>
       <c r="D59" s="25">
-        <v>27.726732447584698</v>
+        <v>29.597364312656001</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F59" s="27">
-        <v>16.688235519666801</v>
+        <v>20.4478871443761</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>15</v>
       </c>
       <c r="H59" s="27">
-        <v>16.184457151817899</v>
+        <v>12.4507147757007</v>
       </c>
       <c r="I59" s="26" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J59" s="27">
-        <v>10.6258632627856</v>
+        <v>9.3110716959654898</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="L59" s="28">
-        <v>4.7677597789451198</v>
+        <v>8.8852985412804504</v>
       </c>
       <c r="M59" s="29">
         <v>5</v>
       </c>
       <c r="N59" s="30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O59" s="28">
-        <v>18.007332896349599</v>
+        <v>17.270550805284898</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="14" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C60" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="25">
-        <v>20.690437357069602</v>
+        <v>14.450923347136101</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="F60" s="27">
-        <v>9.4749050860486896</v>
+        <v>7.06167617832494</v>
       </c>
       <c r="G60" s="26" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="H60" s="27">
-        <v>7.1428843881192101</v>
+        <v>6.2176789835414796</v>
       </c>
       <c r="I60" s="26" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="J60" s="27">
-        <v>4.8337477864468603</v>
+        <v>5.8565065673955399</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>87</v>
+        <v>187</v>
       </c>
       <c r="L60" s="28">
-        <v>4.3815047591246996</v>
+        <v>5.1760359331529902</v>
       </c>
       <c r="M60" s="29">
         <v>17</v>
@@ -4722,341 +4728,341 @@
         <v>40</v>
       </c>
       <c r="O60" s="28">
-        <v>23.061581981638199</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+        <v>21.8295363249734</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="42" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B61" s="60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C61" s="61" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="62">
-        <v>40.505476670941697</v>
+        <v>32.315474391080897</v>
       </c>
       <c r="E61" s="63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F61" s="64">
-        <v>20.2409171368082</v>
+        <v>29.738979248507</v>
       </c>
       <c r="G61" s="63" t="s">
         <v>16</v>
       </c>
       <c r="H61" s="64">
-        <v>6.1123902312097202</v>
+        <v>5.7943027386601296</v>
       </c>
       <c r="I61" s="63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J61" s="64">
-        <v>4.8642022015378403</v>
+        <v>5.3070663132305498</v>
       </c>
       <c r="K61" s="63" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="L61" s="65">
-        <v>2.5762034449021201</v>
+        <v>3.0596326626025498</v>
       </c>
       <c r="M61" s="66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N61" s="67">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O61" s="65">
-        <v>20.133731072816801</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+        <v>16.087452377332799</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B62" s="69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C62" s="70" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="71">
-        <v>26.9548047592533</v>
+        <v>17.444260603215898</v>
       </c>
       <c r="E62" s="72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F62" s="73">
-        <v>10.6749139769985</v>
+        <v>14.2609922762295</v>
       </c>
       <c r="G62" s="72" t="s">
         <v>16</v>
       </c>
       <c r="H62" s="73">
-        <v>4.8130311759545803</v>
+        <v>3.7611998570949501</v>
       </c>
       <c r="I62" s="72" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J62" s="73">
-        <v>3.4317616218607201</v>
+        <v>3.6319230492401</v>
       </c>
       <c r="K62" s="72" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="L62" s="74">
-        <v>2.2074624327193102</v>
+        <v>2.6829021569167799</v>
       </c>
       <c r="M62" s="75">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N62" s="76">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="O62" s="74">
-        <v>22.985689175674299</v>
+        <v>19.430288676576701</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B63" s="69" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C63" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="D63" s="71">
+        <v>4.0216477132303297</v>
+      </c>
+      <c r="E63" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="71">
-        <v>4.9426236968286297</v>
-      </c>
-      <c r="E63" s="72" t="s">
-        <v>57</v>
-      </c>
       <c r="F63" s="73">
-        <v>4.4699173790324904</v>
+        <v>3.5605208887938602</v>
       </c>
       <c r="G63" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="H63" s="73">
+        <v>3.35628022274265</v>
+      </c>
+      <c r="I63" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="J63" s="73">
+        <v>2.8054328786061999</v>
+      </c>
+      <c r="K63" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="H63" s="73">
-        <v>3.8652452739400598</v>
-      </c>
-      <c r="I63" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="J63" s="73">
-        <v>2.9168403829476701</v>
-      </c>
-      <c r="K63" s="72" t="s">
-        <v>229</v>
-      </c>
       <c r="L63" s="74">
-        <v>2.4976349961297402</v>
+        <v>2.74575082692549</v>
       </c>
       <c r="M63" s="75">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N63" s="76">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O63" s="74">
-        <v>28.199828168478</v>
+        <v>26.271120620362002</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A64" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B64" s="78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C64" s="79" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="80">
-        <v>8.0814211997455097</v>
+        <v>5.7685687660849299</v>
       </c>
       <c r="E64" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F64" s="82">
-        <v>5.5133860568434798</v>
+        <v>4.7298794458059001</v>
       </c>
       <c r="G64" s="81" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="H64" s="82">
-        <v>3.36481971224906</v>
+        <v>3.8611942903054901</v>
       </c>
       <c r="I64" s="81" t="s">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="J64" s="82">
-        <v>3.1657701878105602</v>
+        <v>3.46433484674689</v>
       </c>
       <c r="K64" s="81" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="L64" s="83">
-        <v>3.0425061714994102</v>
+        <v>3.0320926014265299</v>
       </c>
       <c r="M64" s="84">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N64" s="85">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O64" s="83">
-        <v>24.4855748701839</v>
+        <v>24.5636618115437</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A65" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C65" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="88">
+        <v>6.9966452111981701</v>
+      </c>
+      <c r="E65" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="87" t="s">
+      <c r="F65" s="90">
+        <v>5.5987230019656398</v>
+      </c>
+      <c r="G65" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="D65" s="88">
-        <v>6.54138348904256</v>
-      </c>
-      <c r="E65" s="89" t="s">
+      <c r="H65" s="90">
+        <v>5.5853300054629198</v>
+      </c>
+      <c r="I65" s="89" t="s">
         <v>234</v>
       </c>
-      <c r="F65" s="90">
-        <v>5.1305975513427899</v>
-      </c>
-      <c r="G65" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="H65" s="90">
-        <v>5.1199684007076796</v>
-      </c>
-      <c r="I65" s="89" t="s">
+      <c r="J65" s="90">
+        <v>1.87911467162026</v>
+      </c>
+      <c r="K65" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J65" s="90">
-        <v>2.4954166451940498</v>
-      </c>
-      <c r="K65" s="89" t="s">
-        <v>14</v>
-      </c>
       <c r="L65" s="91">
-        <v>2.3731708966340501</v>
+        <v>1.8053352222008501</v>
       </c>
       <c r="M65" s="92">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="N65" s="93">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="O65" s="91">
-        <v>22.3982687057403</v>
+        <v>21.285396690227898</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B66" s="94" t="s">
         <v>235</v>
       </c>
       <c r="C66" s="95" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66" s="96">
+        <v>3.9675066701828299</v>
+      </c>
+      <c r="E66" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="96">
-        <v>5.5986744791667302</v>
-      </c>
-      <c r="E66" s="97" t="s">
-        <v>57</v>
-      </c>
       <c r="F66" s="98">
-        <v>4.4024871987462104</v>
+        <v>3.9409109869688401</v>
       </c>
       <c r="G66" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="H66" s="98">
+        <v>3.2671474233934599</v>
+      </c>
+      <c r="I66" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H66" s="98">
-        <v>3.8523257323339499</v>
-      </c>
-      <c r="I66" s="97" t="s">
-        <v>228</v>
-      </c>
       <c r="J66" s="98">
-        <v>2.8327582316372002</v>
+        <v>2.74345130651573</v>
       </c>
       <c r="K66" s="97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L66" s="99">
-        <v>2.4269883743395599</v>
+        <v>2.7329635607695799</v>
       </c>
       <c r="M66" s="100">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="N66" s="101">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="O66" s="99">
-        <v>27.939567849128199</v>
+        <v>25.923482575636399</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A67" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B67" s="86" t="s">
         <v>236</v>
       </c>
       <c r="C67" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="88">
+        <v>12.359400676983199</v>
+      </c>
+      <c r="E67" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="90">
+        <v>10.8946830187432</v>
+      </c>
+      <c r="G67" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="88">
-        <v>21.731953719676099</v>
-      </c>
-      <c r="E67" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="90">
-        <v>7.2405639677356701</v>
-      </c>
-      <c r="G67" s="89" t="s">
-        <v>61</v>
-      </c>
       <c r="H67" s="90">
-        <v>4.5868512065233196</v>
+        <v>7.5360015867903503</v>
       </c>
       <c r="I67" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J67" s="90">
-        <v>4.2589740114594496</v>
+        <v>5.36910027187173</v>
       </c>
       <c r="K67" s="89" t="s">
         <v>17</v>
       </c>
       <c r="L67" s="91">
-        <v>4.0236328189667399</v>
+        <v>3.6298921934009698</v>
       </c>
       <c r="M67" s="92">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N67" s="93">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O67" s="91">
-        <v>19.255132780610399</v>
+        <v>15.876143816588399</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A68" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B68" s="86" t="s">
         <v>237</v>
@@ -5065,92 +5071,92 @@
         <v>14</v>
       </c>
       <c r="D68" s="88">
-        <v>32.490961539766801</v>
+        <v>21.533468766866001</v>
       </c>
       <c r="E68" s="89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68" s="90">
-        <v>12.580585439249401</v>
+        <v>19.264609757668001</v>
       </c>
       <c r="G68" s="89" t="s">
         <v>16</v>
       </c>
       <c r="H68" s="90">
-        <v>4.3829105380142801</v>
+        <v>3.6268014847186798</v>
       </c>
       <c r="I68" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="90">
+        <v>3.02615523088995</v>
+      </c>
+      <c r="K68" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J68" s="90">
-        <v>3.0866106314559598</v>
-      </c>
-      <c r="K68" s="89" t="s">
-        <v>21</v>
-      </c>
       <c r="L68" s="91">
-        <v>2.66406948153822</v>
+        <v>2.8638508696923202</v>
       </c>
       <c r="M68" s="92">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N68" s="93">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="O68" s="91">
-        <v>21.749543490332201</v>
+        <v>17.297569133143501</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A69" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69" s="86" t="s">
         <v>238</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" s="88">
-        <v>22.479217045463301</v>
+        <v>34.206682752361303</v>
       </c>
       <c r="E69" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69" s="90">
+        <v>6.79929747117641</v>
+      </c>
+      <c r="G69" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="90">
+        <v>4.99180363872133</v>
+      </c>
+      <c r="I69" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="90">
-        <v>9.5966333820746197</v>
-      </c>
-      <c r="G69" s="89" t="s">
-        <v>41</v>
-      </c>
-      <c r="H69" s="90">
-        <v>7.5782897543458603</v>
-      </c>
-      <c r="I69" s="89" t="s">
-        <v>72</v>
-      </c>
       <c r="J69" s="90">
-        <v>5.2942577364129404</v>
+        <v>3.4576001162172099</v>
       </c>
       <c r="K69" s="89" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="L69" s="91">
-        <v>4.1971996572657604</v>
+        <v>3.0378172778050199</v>
       </c>
       <c r="M69" s="92">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N69" s="93">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O69" s="91">
-        <v>15.076420752350201</v>
+        <v>13.205910249862001</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A70" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B70" s="86" t="s">
         <v>239</v>
@@ -5159,45 +5165,45 @@
         <v>14</v>
       </c>
       <c r="D70" s="88">
-        <v>64.794028518866497</v>
+        <v>46.871503904093302</v>
       </c>
       <c r="E70" s="89" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F70" s="90">
-        <v>9.3691774131592105</v>
+        <v>21.748881027964298</v>
       </c>
       <c r="G70" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="90">
+        <v>4.8206161772062499</v>
+      </c>
+      <c r="I70" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="J70" s="90">
+        <v>3.9155760569982698</v>
+      </c>
+      <c r="K70" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="H70" s="90">
-        <v>4.3081287853993304</v>
-      </c>
-      <c r="I70" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="90">
-        <v>2.8531415842925099</v>
-      </c>
-      <c r="K70" s="89" t="s">
-        <v>92</v>
-      </c>
       <c r="L70" s="91">
-        <v>2.76512111348725</v>
+        <v>3.50601765060419</v>
       </c>
       <c r="M70" s="92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N70" s="93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O70" s="91">
-        <v>33.995468980397398</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>29.484772989378499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A71" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B71" s="86" t="s">
         <v>240</v>
@@ -5206,139 +5212,139 @@
         <v>14</v>
       </c>
       <c r="D71" s="88">
-        <v>40.505476670941697</v>
+        <v>32.315474391080897</v>
       </c>
       <c r="E71" s="89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F71" s="90">
-        <v>20.2409171368082</v>
+        <v>29.738979248507</v>
       </c>
       <c r="G71" s="89" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="90">
-        <v>6.1123902312097202</v>
+        <v>5.7943027386601296</v>
       </c>
       <c r="I71" s="89" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J71" s="90">
-        <v>4.8642022015378403</v>
+        <v>5.3070663132305498</v>
       </c>
       <c r="K71" s="89" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="L71" s="91">
-        <v>2.5762034449021201</v>
+        <v>3.0596326626025498</v>
       </c>
       <c r="M71" s="92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N71" s="93">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O71" s="91">
-        <v>20.133731072816801</v>
+        <v>16.087452377332799</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A72" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B72" s="86" t="s">
         <v>241</v>
       </c>
       <c r="C72" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" s="88">
-        <v>18.602018284536399</v>
+        <v>28.675821933595099</v>
       </c>
       <c r="E72" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="F72" s="90">
+        <v>7.4804182215809796</v>
+      </c>
+      <c r="G72" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" s="90">
+        <v>5.8405324865289598</v>
+      </c>
+      <c r="I72" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="J72" s="90">
+        <v>5.4998731267455696</v>
+      </c>
+      <c r="K72" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="90">
-        <v>12.926875461944</v>
-      </c>
-      <c r="G72" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="H72" s="90">
-        <v>7.7959314264179396</v>
-      </c>
-      <c r="I72" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="J72" s="90">
-        <v>6.2933506502465901</v>
-      </c>
-      <c r="K72" s="89" t="s">
-        <v>41</v>
-      </c>
       <c r="L72" s="91">
-        <v>6.1627229839443496</v>
+        <v>4.6693734024556601</v>
       </c>
       <c r="M72" s="92">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N72" s="93">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O72" s="91">
-        <v>14.001302450939701</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>12.2648168279625</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A73" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B73" s="86" t="s">
         <v>242</v>
       </c>
       <c r="C73" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" s="88">
+        <v>10.415898096872001</v>
+      </c>
+      <c r="E73" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="88">
-        <v>14.636026297950799</v>
-      </c>
-      <c r="E73" s="89" t="s">
-        <v>22</v>
-      </c>
       <c r="F73" s="90">
-        <v>10.7610658602866</v>
+        <v>9.6855038223632803</v>
       </c>
       <c r="G73" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" s="90">
+        <v>7.3056008418871698</v>
+      </c>
+      <c r="I73" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="J73" s="90">
+        <v>6.2804261234905896</v>
+      </c>
+      <c r="K73" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="H73" s="90">
-        <v>5.61154246077934</v>
-      </c>
-      <c r="I73" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="J73" s="90">
-        <v>4.8397136937436303</v>
-      </c>
-      <c r="K73" s="89" t="s">
-        <v>57</v>
-      </c>
       <c r="L73" s="91">
-        <v>3.8442778505151298</v>
+        <v>6.2527902620058198</v>
       </c>
       <c r="M73" s="92">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N73" s="93">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="O73" s="91">
-        <v>28.956137439324898</v>
+        <v>28.041047608218001</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A74" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B74" s="86" t="s">
         <v>243</v>
@@ -5347,45 +5353,45 @@
         <v>14</v>
       </c>
       <c r="D74" s="88">
-        <v>32.687017737593401</v>
+        <v>15.550068984441999</v>
       </c>
       <c r="E74" s="89" t="s">
         <v>16</v>
       </c>
       <c r="F74" s="90">
-        <v>10.7049060736913</v>
+        <v>10.021854992643499</v>
       </c>
       <c r="G74" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" s="90">
+        <v>6.83634015984254</v>
+      </c>
+      <c r="I74" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="90">
-        <v>6.4550218582514196</v>
-      </c>
-      <c r="I74" s="89" t="s">
-        <v>21</v>
-      </c>
       <c r="J74" s="90">
-        <v>5.0771829887875004</v>
+        <v>5.2157507812568404</v>
       </c>
       <c r="K74" s="89" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L74" s="91">
-        <v>3.4456063724998902</v>
+        <v>4.9390742050435597</v>
       </c>
       <c r="M74" s="92">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N74" s="93">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="O74" s="91">
-        <v>30.7239571600274</v>
+        <v>24.952605976376798</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B75" s="94" t="s">
         <v>244</v>
@@ -5394,92 +5400,92 @@
         <v>14</v>
       </c>
       <c r="D75" s="103">
-        <v>72.850686590753895</v>
+        <v>67.522387772497595</v>
       </c>
       <c r="E75" s="104" t="s">
         <v>16</v>
       </c>
       <c r="F75" s="105">
-        <v>6.8542531392280202</v>
+        <v>7.2451279494315601</v>
       </c>
       <c r="G75" s="104" t="s">
         <v>15</v>
       </c>
       <c r="H75" s="105">
-        <v>4.09032430155826</v>
+        <v>4.8021135132068498</v>
       </c>
       <c r="I75" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" s="105">
+        <v>4.6415518806407796</v>
+      </c>
+      <c r="K75" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="J75" s="105">
-        <v>3.1450021879707499</v>
-      </c>
-      <c r="K75" s="104" t="s">
-        <v>47</v>
-      </c>
       <c r="L75" s="91">
-        <v>2.2825936674392699</v>
+        <v>3.2909110677554598</v>
       </c>
       <c r="M75" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75" s="107">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O75" s="91">
-        <v>40.493809726473998</v>
+        <v>34.8208617812762</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A76" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B76" s="86" t="s">
         <v>245</v>
       </c>
       <c r="C76" s="108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="109">
-        <v>11.557441101469101</v>
+        <v>12.7024648351489</v>
       </c>
       <c r="E76" s="110" t="s">
+        <v>230</v>
+      </c>
+      <c r="F76" s="111">
+        <v>4.5477894552069698</v>
+      </c>
+      <c r="G76" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F76" s="111">
-        <v>4.8483750640742898</v>
-      </c>
-      <c r="G76" s="110" t="s">
-        <v>229</v>
-      </c>
       <c r="H76" s="111">
-        <v>4.3390926404760997</v>
+        <v>3.6282775696955301</v>
       </c>
       <c r="I76" s="110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J76" s="111">
-        <v>3.2364132868143098</v>
+        <v>3.20927118395712</v>
       </c>
       <c r="K76" s="110" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L76" s="83">
-        <v>2.1326560143339899</v>
+        <v>2.8212225515554499</v>
       </c>
       <c r="M76" s="112">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N76" s="113">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="O76" s="83">
-        <v>50.024226823068197</v>
+        <v>47.746674537101903</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A77" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B77" s="86" t="s">
         <v>246</v>
@@ -5488,1074 +5494,1074 @@
         <v>14</v>
       </c>
       <c r="D77" s="88">
-        <v>11.2929429335114</v>
+        <v>7.8605213597703303</v>
       </c>
       <c r="E77" s="89" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="F77" s="90">
-        <v>6.3308507775559004</v>
+        <v>7.1213341150781799</v>
       </c>
       <c r="G77" s="89" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
       <c r="H77" s="90">
-        <v>6.1073075144349804</v>
+        <v>7.0844847101055599</v>
       </c>
       <c r="I77" s="89" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="J77" s="90">
-        <v>4.7326725652589596</v>
+        <v>6.2076008678084902</v>
       </c>
       <c r="K77" s="89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L77" s="91">
-        <v>3.8901109808657801</v>
+        <v>4.4043857220530898</v>
       </c>
       <c r="M77" s="92">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N77" s="93">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O77" s="91">
-        <v>18.025248461525798</v>
+        <v>18.478312145378599</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A78" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B78" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="D78" s="88">
+        <v>6.2184613878444397</v>
+      </c>
+      <c r="E78" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C78" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D78" s="88">
-        <v>6.6800870647215103</v>
-      </c>
-      <c r="E78" s="89" t="s">
+      <c r="F78" s="90">
+        <v>5.0394016232014902</v>
+      </c>
+      <c r="G78" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="H78" s="90">
+        <v>3.0575146513589901</v>
+      </c>
+      <c r="I78" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="F78" s="90">
-        <v>4.3104450648249797</v>
-      </c>
-      <c r="G78" s="89" t="s">
-        <v>231</v>
-      </c>
-      <c r="H78" s="90">
-        <v>3.2485369413419698</v>
-      </c>
-      <c r="I78" s="89" t="s">
+      <c r="J78" s="90">
+        <v>2.5775162348577099</v>
+      </c>
+      <c r="K78" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="J78" s="90">
-        <v>3.03990949927808</v>
-      </c>
-      <c r="K78" s="89" t="s">
-        <v>250</v>
-      </c>
       <c r="L78" s="91">
-        <v>2.2113188911933199</v>
+        <v>2.0427087095445602</v>
       </c>
       <c r="M78" s="92">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="N78" s="93">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O78" s="91">
-        <v>49.318897250394201</v>
+        <v>46.710722289173603</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B79" s="94" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C79" s="95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D79" s="96">
-        <v>6.6967582105758598</v>
+        <v>6.10604472013073</v>
       </c>
       <c r="E79" s="97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F79" s="98">
-        <v>3.28413502504897</v>
+        <v>3.7743577569253</v>
       </c>
       <c r="G79" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="H79" s="98">
+        <v>2.8251990316489901</v>
+      </c>
+      <c r="I79" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="J79" s="98">
+        <v>2.3674522820923398</v>
+      </c>
+      <c r="K79" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="H79" s="98">
-        <v>3.2139054076486002</v>
-      </c>
-      <c r="I79" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="J79" s="98">
-        <v>3.0227600619190902</v>
-      </c>
-      <c r="K79" s="97" t="s">
-        <v>14</v>
-      </c>
       <c r="L79" s="99">
-        <v>2.2702183377742</v>
+        <v>2.2168863333001601</v>
       </c>
       <c r="M79" s="100">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N79" s="101">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O79" s="99">
-        <v>29.850143772159601</v>
+        <v>27.636831682715599</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A80" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B80" s="86" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C80" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="88">
-        <v>68.708887083061896</v>
+        <v>61.978553773674697</v>
       </c>
       <c r="E80" s="89" t="s">
         <v>16</v>
       </c>
       <c r="F80" s="90">
-        <v>12.2616693007288</v>
+        <v>13.9686161874045</v>
       </c>
       <c r="G80" s="89" t="s">
         <v>17</v>
       </c>
       <c r="H80" s="90">
-        <v>4.4948677518342102</v>
+        <v>4.4509248207537002</v>
       </c>
       <c r="I80" s="89" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J80" s="90">
-        <v>1.4196858615435599</v>
+        <v>2.72273433559528</v>
       </c>
       <c r="K80" s="89" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="L80" s="91">
-        <v>1.3572579285872299</v>
+        <v>2.0729641988663201</v>
       </c>
       <c r="M80" s="92">
         <v>2</v>
       </c>
       <c r="N80" s="93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O80" s="91">
-        <v>22.2264025333216</v>
+        <v>16.102160988592999</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A81" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B81" s="86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C81" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="88">
-        <v>42.148716535793902</v>
+        <v>34.137458402387999</v>
       </c>
       <c r="E81" s="89" t="s">
         <v>17</v>
       </c>
       <c r="F81" s="90">
-        <v>10.994380613872201</v>
+        <v>9.8843840077390208</v>
       </c>
       <c r="G81" s="89" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="90">
-        <v>8.3213196544748804</v>
+        <v>6.8842204795275297</v>
       </c>
       <c r="I81" s="89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" s="90">
-        <v>3.06188114149615</v>
+        <v>6.7128827749726598</v>
       </c>
       <c r="K81" s="89" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
       <c r="L81" s="91">
-        <v>1.6048892078416901</v>
+        <v>1.7262423982711299</v>
       </c>
       <c r="M81" s="92">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N81" s="93">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="O81" s="91">
-        <v>35.2659687311684</v>
+        <v>29.505691309920699</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A82" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B82" s="86" t="s">
         <v>254</v>
       </c>
       <c r="C82" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="88">
-        <v>15.679866870435299</v>
+        <v>18.076693719700501</v>
       </c>
       <c r="E82" s="89" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F82" s="90">
-        <v>4.5267161870234798</v>
+        <v>4.1474706792453597</v>
       </c>
       <c r="G82" s="89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H82" s="90">
-        <v>3.3898065841906102</v>
+        <v>3.5522757453334899</v>
       </c>
       <c r="I82" s="89" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J82" s="90">
-        <v>2.8607171366816</v>
+        <v>3.1462252798882</v>
       </c>
       <c r="K82" s="89" t="s">
         <v>56</v>
       </c>
       <c r="L82" s="91">
-        <v>2.8127101511041399</v>
+        <v>2.7205151295762899</v>
       </c>
       <c r="M82" s="92">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="N82" s="93">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="O82" s="91">
-        <v>23.3011724236612</v>
+        <v>20.7741079048362</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="63.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B83" s="94" t="s">
         <v>255</v>
       </c>
       <c r="C83" s="95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83" s="96">
-        <v>4.7930351484346199</v>
+        <v>4.2510240071172296</v>
       </c>
       <c r="E83" s="97" t="s">
-        <v>17</v>
+        <v>229</v>
       </c>
       <c r="F83" s="98">
-        <v>3.2621193766862202</v>
+        <v>3.5899484183927202</v>
       </c>
       <c r="G83" s="97" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H83" s="98">
-        <v>3.16156199389741</v>
+        <v>2.9010874100438002</v>
       </c>
       <c r="I83" s="97" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="J83" s="98">
-        <v>2.6259607505940799</v>
+        <v>2.7532452959109301</v>
       </c>
       <c r="K83" s="97" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="L83" s="99">
-        <v>2.4419780295414002</v>
+        <v>2.6918118520860199</v>
       </c>
       <c r="M83" s="100">
         <v>186</v>
       </c>
       <c r="N83" s="101">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O83" s="99">
-        <v>27.570965563126101</v>
+        <v>25.978873230176099</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A84" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B84" s="86" t="s">
         <v>256</v>
       </c>
       <c r="C84" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="88">
-        <v>31.136135437469299</v>
+        <v>38.772229387705202</v>
       </c>
       <c r="E84" s="114" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F84" s="115">
-        <v>7.30891062122131</v>
+        <v>14.466748116510701</v>
       </c>
       <c r="G84" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" s="115">
+        <v>4.00297648690686</v>
+      </c>
+      <c r="I84" s="114" t="s">
+        <v>87</v>
+      </c>
+      <c r="J84" s="115">
+        <v>3.8538905096207601</v>
+      </c>
+      <c r="K84" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="H84" s="115">
-        <v>7.1771869223087696</v>
-      </c>
-      <c r="I84" s="114" t="s">
-        <v>202</v>
-      </c>
-      <c r="J84" s="115">
-        <v>5.2040130269014497</v>
-      </c>
-      <c r="K84" s="114" t="s">
-        <v>92</v>
-      </c>
       <c r="L84" s="116">
-        <v>3.6296324142118799</v>
+        <v>3.5210264729533298</v>
       </c>
       <c r="M84" s="117">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="N84" s="118">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="O84" s="116">
-        <v>18.935407403318798</v>
+        <v>18.6945543790595</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A85" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B85" s="86" t="s">
         <v>257</v>
       </c>
       <c r="C85" s="87" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D85" s="88">
-        <v>22.687194830135699</v>
+        <v>16.9748069698169</v>
       </c>
       <c r="E85" s="89" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F85" s="90">
-        <v>20.473017798812801</v>
+        <v>16.299061437603999</v>
       </c>
       <c r="G85" s="89" t="s">
         <v>258</v>
       </c>
       <c r="H85" s="90">
-        <v>4.6899682616129299</v>
+        <v>4.6075495715344097</v>
       </c>
       <c r="I85" s="89" t="s">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="J85" s="90">
-        <v>3.3636107251318799</v>
+        <v>4.5506670163614604</v>
       </c>
       <c r="K85" s="89" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="L85" s="91">
-        <v>2.8037106729648298</v>
+        <v>3.94481023499256</v>
       </c>
       <c r="M85" s="92">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N85" s="93">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="O85" s="91">
-        <v>7.6079266150250504</v>
+        <v>6.8771293523331103</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A86" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B86" s="86" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C86" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="88">
-        <v>34.967270010382499</v>
+        <v>27.4777167136541</v>
       </c>
       <c r="E86" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="F86" s="90">
+        <v>7.6177170090333997</v>
+      </c>
+      <c r="G86" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="90">
-        <v>7.3124614712317202</v>
-      </c>
-      <c r="G86" s="89" t="s">
-        <v>22</v>
-      </c>
       <c r="H86" s="90">
-        <v>6.4915554298502904</v>
+        <v>6.3709622078209804</v>
       </c>
       <c r="I86" s="89" t="s">
         <v>17</v>
       </c>
       <c r="J86" s="90">
-        <v>4.4701462209289504</v>
+        <v>4.0678244809451698</v>
       </c>
       <c r="K86" s="89" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="L86" s="91">
-        <v>2.2244112555901299</v>
+        <v>2.6054241929552102</v>
       </c>
       <c r="M86" s="92">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N86" s="93">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="O86" s="91">
-        <v>22.636114997922501</v>
+        <v>17.705529697404799</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A87" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B87" s="86" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C87" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" s="88">
+        <v>4.6050071727189001</v>
+      </c>
+      <c r="E87" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="D87" s="88">
-        <v>4.3833997292356202</v>
-      </c>
-      <c r="E87" s="89" t="s">
+      <c r="F87" s="90">
+        <v>3.8615351757905199</v>
+      </c>
+      <c r="G87" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="90">
+        <v>2.7980036418427798</v>
+      </c>
+      <c r="I87" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="F87" s="90">
-        <v>3.7214229772160801</v>
-      </c>
-      <c r="G87" s="89" t="s">
-        <v>228</v>
-      </c>
-      <c r="H87" s="90">
-        <v>3.3636634421295999</v>
-      </c>
-      <c r="I87" s="89" t="s">
-        <v>16</v>
-      </c>
       <c r="J87" s="90">
-        <v>2.1462605990391701</v>
+        <v>2.61842459413222</v>
       </c>
       <c r="K87" s="89" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="L87" s="91">
-        <v>2.0713922263413398</v>
+        <v>2.0762893354505101</v>
       </c>
       <c r="M87" s="92">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="N87" s="93">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="O87" s="91">
-        <v>22.784581869320501</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
+        <v>21.430627390630899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A88" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B88" s="86" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C88" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="88">
+        <v>12.0451736797508</v>
+      </c>
+      <c r="E88" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="90">
+        <v>9.0691199012461396</v>
+      </c>
+      <c r="G88" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="88">
-        <v>18.650084453955898</v>
-      </c>
-      <c r="E88" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F88" s="90">
-        <v>11.6290198019641</v>
-      </c>
-      <c r="G88" s="89" t="s">
-        <v>56</v>
-      </c>
       <c r="H88" s="90">
-        <v>5.9700644533472902</v>
+        <v>7.5756836744544804</v>
       </c>
       <c r="I88" s="89" t="s">
         <v>15</v>
       </c>
       <c r="J88" s="90">
-        <v>5.1712255560074301</v>
+        <v>7.3210367504347102</v>
       </c>
       <c r="K88" s="89" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L88" s="91">
-        <v>4.7480459004898297</v>
+        <v>4.8912267169954804</v>
       </c>
       <c r="M88" s="92">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N88" s="93">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="O88" s="91">
-        <v>28.7748282759704</v>
+        <v>28.540311444921102</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="63" x14ac:dyDescent="0.35">
       <c r="A89" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B89" s="86" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C89" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D89" s="88">
+        <v>5.2605818623849396</v>
+      </c>
+      <c r="E89" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="F89" s="90">
+        <v>5.1564454165770099</v>
+      </c>
+      <c r="G89" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="88">
-        <v>6.6327971645973403</v>
-      </c>
-      <c r="E89" s="89" t="s">
+      <c r="H89" s="90">
+        <v>4.42281070190836</v>
+      </c>
+      <c r="I89" s="89" t="s">
         <v>229</v>
       </c>
-      <c r="F89" s="90">
-        <v>4.7329154146814298</v>
-      </c>
-      <c r="G89" s="89" t="s">
-        <v>234</v>
-      </c>
-      <c r="H89" s="90">
-        <v>4.6432096455298097</v>
-      </c>
-      <c r="I89" s="89" t="s">
-        <v>228</v>
-      </c>
       <c r="J89" s="90">
-        <v>3.7432575611491199</v>
+        <v>4.2411500077843796</v>
       </c>
       <c r="K89" s="89" t="s">
         <v>17</v>
       </c>
       <c r="L89" s="91">
-        <v>3.3016289453391701</v>
+        <v>2.4228170783621201</v>
       </c>
       <c r="M89" s="92">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N89" s="93">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="O89" s="91">
-        <v>25.078802611966999</v>
+        <v>23.751560552975299</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B90" s="94" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C90" s="102" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D90" s="103">
-        <v>5.9764587787536803</v>
+        <v>5.5310596712173901</v>
       </c>
       <c r="E90" s="104" t="s">
+        <v>248</v>
+      </c>
+      <c r="F90" s="105">
+        <v>3.8023709065279099</v>
+      </c>
+      <c r="G90" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="F90" s="105">
-        <v>4.4206411431471402</v>
-      </c>
-      <c r="G90" s="104" t="s">
+      <c r="H90" s="105">
+        <v>3.4521945648347399</v>
+      </c>
+      <c r="I90" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="H90" s="105">
-        <v>4.1402724094631704</v>
-      </c>
-      <c r="I90" s="104" t="s">
-        <v>249</v>
-      </c>
       <c r="J90" s="105">
-        <v>3.2612984359238602</v>
+        <v>2.9195096396351898</v>
       </c>
       <c r="K90" s="104" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L90" s="91">
-        <v>2.6365418750830298</v>
+        <v>2.8684389515406301</v>
       </c>
       <c r="M90" s="106">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="N90" s="107">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="O90" s="91">
-        <v>32.237011529709697</v>
+        <v>29.8247149566456</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A91" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B91" s="86" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C91" s="108" t="s">
+        <v>21</v>
+      </c>
+      <c r="D91" s="109">
+        <v>27.796421851265698</v>
+      </c>
+      <c r="E91" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="109">
-        <v>28.390188023264901</v>
-      </c>
-      <c r="E91" s="110" t="s">
-        <v>22</v>
-      </c>
       <c r="F91" s="111">
-        <v>17.883613987666202</v>
+        <v>16.4512792783622</v>
       </c>
       <c r="G91" s="110" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H91" s="111">
-        <v>5.3170647677384997</v>
+        <v>10.6177773794261</v>
       </c>
       <c r="I91" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="J91" s="111">
+        <v>5.5652776733899199</v>
+      </c>
+      <c r="K91" s="110" t="s">
+        <v>206</v>
+      </c>
+      <c r="L91" s="83">
+        <v>2.4613935883537299</v>
+      </c>
+      <c r="M91" s="112">
+        <v>13</v>
+      </c>
+      <c r="N91" s="113">
         <v>51</v>
       </c>
-      <c r="J91" s="111">
-        <v>5.0179556741449103</v>
-      </c>
-      <c r="K91" s="110" t="s">
-        <v>202</v>
-      </c>
-      <c r="L91" s="83">
-        <v>2.5325692798977899</v>
-      </c>
-      <c r="M91" s="112">
-        <v>15</v>
-      </c>
-      <c r="N91" s="113">
-        <v>50</v>
-      </c>
       <c r="O91" s="83">
-        <v>23.3289423948085</v>
+        <v>22.232226551438401</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A92" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B92" s="86" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C92" s="87" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="D92" s="88">
-        <v>8.2348700769273897</v>
+        <v>7.8676757486992104</v>
       </c>
       <c r="E92" s="89" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="F92" s="90">
-        <v>8.0298265097222199</v>
+        <v>7.2248635241485104</v>
       </c>
       <c r="G92" s="89" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H92" s="90">
-        <v>7.7934810499453704</v>
+        <v>7.0697206902102598</v>
       </c>
       <c r="I92" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="J92" s="90">
+        <v>6.7622237049051197</v>
+      </c>
+      <c r="K92" s="89" t="s">
+        <v>21</v>
+      </c>
+      <c r="L92" s="91">
+        <v>6.3803275753501003</v>
+      </c>
+      <c r="M92" s="92">
         <v>31</v>
       </c>
-      <c r="J92" s="90">
-        <v>7.0691320144051604</v>
-      </c>
-      <c r="K92" s="89" t="s">
-        <v>16</v>
-      </c>
-      <c r="L92" s="91">
-        <v>5.8003284308111898</v>
-      </c>
-      <c r="M92" s="92">
-        <v>30</v>
-      </c>
       <c r="N92" s="93">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="O92" s="91">
-        <v>19.0037105188085</v>
+        <v>16.035765040178202</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A93" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B93" s="86" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C93" s="87" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D93" s="88">
-        <v>13.626209708130601</v>
+        <v>14.868954512979</v>
       </c>
       <c r="E93" s="89" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="F93" s="90">
-        <v>9.4962633221970698</v>
+        <v>12.935793040859201</v>
       </c>
       <c r="G93" s="89" t="s">
+        <v>141</v>
+      </c>
+      <c r="H93" s="90">
+        <v>9.6161173409784002</v>
+      </c>
+      <c r="I93" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="J93" s="90">
+        <v>5.4939445839040504</v>
+      </c>
+      <c r="K93" s="89" t="s">
         <v>17</v>
       </c>
-      <c r="H93" s="90">
-        <v>8.6198788251565492</v>
-      </c>
-      <c r="I93" s="89" t="s">
-        <v>29</v>
-      </c>
-      <c r="J93" s="90">
-        <v>5.0332379665678104</v>
-      </c>
-      <c r="K93" s="89" t="s">
-        <v>144</v>
-      </c>
       <c r="L93" s="91">
-        <v>4.2247897854262204</v>
+        <v>3.6308725697813302</v>
       </c>
       <c r="M93" s="92">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N93" s="93">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O93" s="91">
-        <v>38.785286579872199</v>
+        <v>28.7147456900667</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A94" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B94" s="86" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C94" s="87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D94" s="88">
-        <v>15.352705345187101</v>
+        <v>18.9102073814948</v>
       </c>
       <c r="E94" s="89" t="s">
         <v>17</v>
       </c>
       <c r="F94" s="90">
-        <v>13.8047659226071</v>
+        <v>9.5032810839991502</v>
       </c>
       <c r="G94" s="89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H94" s="90">
-        <v>5.2405106820301404</v>
+        <v>5.53639723326273</v>
       </c>
       <c r="I94" s="89" t="s">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="J94" s="90">
-        <v>2.8399554593443002</v>
+        <v>3.0728381415511299</v>
       </c>
       <c r="K94" s="89" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="L94" s="91">
-        <v>2.2257662826622</v>
+        <v>2.7867719038892602</v>
       </c>
       <c r="M94" s="92">
         <v>51</v>
       </c>
       <c r="N94" s="93">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O94" s="91">
-        <v>111.596307383292</v>
+        <v>112.586596239001</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A95" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B95" s="86" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C95" s="87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" s="88">
-        <v>30.461019854780599</v>
+        <v>40.791330180269</v>
       </c>
       <c r="E95" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F95" s="90">
+        <v>10.984112329560899</v>
+      </c>
+      <c r="G95" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="90">
-        <v>11.5416640972267</v>
-      </c>
-      <c r="G95" s="89" t="s">
-        <v>51</v>
-      </c>
       <c r="H95" s="90">
-        <v>11.2449419820451</v>
+        <v>8.8494242301197694</v>
       </c>
       <c r="I95" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="J95" s="90">
+        <v>3.8804187675442101</v>
+      </c>
+      <c r="K95" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="J95" s="90">
-        <v>5.2458370470735698</v>
-      </c>
-      <c r="K95" s="89" t="s">
-        <v>61</v>
-      </c>
       <c r="L95" s="91">
-        <v>4.0389997242427196</v>
+        <v>3.6292212595054498</v>
       </c>
       <c r="M95" s="92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N95" s="93">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="O95" s="91">
-        <v>19.834744611285</v>
+        <v>19.320975557333998</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B96" s="94" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C96" s="95" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="96">
-        <v>32.038273261587598</v>
+        <v>25.672527126565999</v>
       </c>
       <c r="E96" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="F96" s="98">
+        <v>10.9713267382306</v>
+      </c>
+      <c r="G96" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="98">
-        <v>11.6553715794065</v>
-      </c>
-      <c r="G96" s="97" t="s">
-        <v>22</v>
-      </c>
       <c r="H96" s="98">
-        <v>7.5961395231926403</v>
+        <v>9.3861207232515191</v>
       </c>
       <c r="I96" s="97" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J96" s="98">
-        <v>2.8751321965952199</v>
+        <v>3.2165693926097298</v>
       </c>
       <c r="K96" s="97" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="L96" s="99">
-        <v>2.4869172711882199</v>
+        <v>3.08616601117973</v>
       </c>
       <c r="M96" s="100">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N96" s="101">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O96" s="99">
-        <v>32.267782003419903</v>
+        <v>27.003055957956001</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A97" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B97" s="86" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C97" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="88">
-        <v>46.5296373345682</v>
+        <v>30.727979786804202</v>
       </c>
       <c r="E97" s="89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F97" s="90">
-        <v>9.8823052310260309</v>
+        <v>18.713076828344199</v>
       </c>
       <c r="G97" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="90">
+        <v>7.54340495962877</v>
+      </c>
+      <c r="I97" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="H97" s="90">
-        <v>5.1320369889374096</v>
-      </c>
-      <c r="I97" s="89" t="s">
-        <v>61</v>
-      </c>
       <c r="J97" s="90">
-        <v>3.5577004528787799</v>
+        <v>4.4043823825969497</v>
       </c>
       <c r="K97" s="89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L97" s="91">
-        <v>2.3474315348246302</v>
+        <v>3.3957922852835298</v>
       </c>
       <c r="M97" s="92">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N97" s="93">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O97" s="91">
-        <v>20.316177819727098</v>
+        <v>17.235270642716401</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="42" x14ac:dyDescent="0.35">
       <c r="A98" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B98" s="86" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C98" s="87" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="88">
-        <v>34.080533057647301</v>
+        <v>21.275029321725299</v>
       </c>
       <c r="E98" s="89" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F98" s="90">
-        <v>3.94983383129007</v>
+        <v>7.8805213238782903</v>
       </c>
       <c r="G98" s="89" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="H98" s="90">
-        <v>3.7736048813099599</v>
+        <v>4.2852502807914403</v>
       </c>
       <c r="I98" s="89" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="J98" s="90">
-        <v>3.7367074965704701</v>
+        <v>4.0062915542570403</v>
       </c>
       <c r="K98" s="89" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L98" s="91">
-        <v>3.6194358777770201</v>
+        <v>3.8834318881867902</v>
       </c>
       <c r="M98" s="92">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N98" s="93">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="O98" s="91">
-        <v>19.241640923017499</v>
+        <v>13.6878051607566</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="77" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B99" s="94" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C99" s="95" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="96">
-        <v>74.908577721939494</v>
+        <v>53.637733183665297</v>
       </c>
       <c r="E99" s="97" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F99" s="98">
-        <v>5.8523392699723296</v>
+        <v>13.741501002125901</v>
       </c>
       <c r="G99" s="97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H99" s="98">
-        <v>4.8348510927394601</v>
+        <v>11.4610671973481</v>
       </c>
       <c r="I99" s="97" t="s">
         <v>17</v>
       </c>
       <c r="J99" s="98">
-        <v>3.8986769356905402</v>
+        <v>4.7885728750096703</v>
       </c>
       <c r="K99" s="97" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L99" s="99">
-        <v>1.72178806503847</v>
+        <v>3.0412553981477002</v>
       </c>
       <c r="M99" s="100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N99" s="101">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O99" s="99">
-        <v>29.360226564954601</v>
+        <v>23.506077656131499</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.35">
@@ -6577,32 +6583,32 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="126" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="126" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="126" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="126" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" s="126" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="133" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
@@ -6610,12 +6616,12 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
@@ -6623,12 +6629,12 @@
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab20.xlsx
+++ b/AfDD_2022_Annex_Table_Tab20.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -865,7 +865,7 @@
     <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -6643,7 +6643,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
